--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2217"/>
+  <dimension ref="A1:G2155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54771,10 +54771,8 @@
       </c>
       <c r="E2090" t="inlineStr"/>
       <c r="F2090" t="inlineStr"/>
-      <c r="G2090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2091">
@@ -54800,10 +54798,8 @@
       </c>
       <c r="E2091" t="inlineStr"/>
       <c r="F2091" t="inlineStr"/>
-      <c r="G2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -54829,10 +54825,8 @@
       </c>
       <c r="E2092" t="inlineStr"/>
       <c r="F2092" t="inlineStr"/>
-      <c r="G2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -54858,10 +54852,8 @@
       </c>
       <c r="E2093" t="inlineStr"/>
       <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -54887,10 +54879,8 @@
       </c>
       <c r="E2094" t="inlineStr"/>
       <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -54924,10 +54914,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="G2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -54957,10 +54945,8 @@
         </is>
       </c>
       <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2096" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2097">
@@ -54990,10 +54976,8 @@
         </is>
       </c>
       <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2097" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2098">
@@ -55019,10 +55003,8 @@
       </c>
       <c r="E2098" t="inlineStr"/>
       <c r="F2098" t="inlineStr"/>
-      <c r="G2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -55048,10 +55030,8 @@
       </c>
       <c r="E2099" t="inlineStr"/>
       <c r="F2099" t="inlineStr"/>
-      <c r="G2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
@@ -55077,10 +55057,8 @@
       </c>
       <c r="E2100" t="inlineStr"/>
       <c r="F2100" t="inlineStr"/>
-      <c r="G2100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2101">
@@ -55110,10 +55088,8 @@
         </is>
       </c>
       <c r="F2101" t="inlineStr"/>
-      <c r="G2101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2102">
@@ -55139,10 +55115,8 @@
       </c>
       <c r="E2102" t="inlineStr"/>
       <c r="F2102" t="inlineStr"/>
-      <c r="G2102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2103">
@@ -55168,10 +55142,8 @@
       </c>
       <c r="E2103" t="inlineStr"/>
       <c r="F2103" t="inlineStr"/>
-      <c r="G2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2104">
@@ -55197,10 +55169,8 @@
       </c>
       <c r="E2104" t="inlineStr"/>
       <c r="F2104" t="inlineStr"/>
-      <c r="G2104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2105">
@@ -55222,10 +55192,8 @@
         </is>
       </c>
       <c r="F2105" t="inlineStr"/>
-      <c r="G2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -55251,10 +55219,8 @@
       </c>
       <c r="E2106" t="inlineStr"/>
       <c r="F2106" t="inlineStr"/>
-      <c r="G2106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2107">
@@ -55280,10 +55246,8 @@
       </c>
       <c r="E2107" t="inlineStr"/>
       <c r="F2107" t="inlineStr"/>
-      <c r="G2107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2108">
@@ -55301,10 +55265,8 @@
       <c r="D2108" t="inlineStr"/>
       <c r="E2108" t="inlineStr"/>
       <c r="F2108" t="inlineStr"/>
-      <c r="G2108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2109">
@@ -55347,10 +55309,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2111">
@@ -55380,10 +55340,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2112">
@@ -55409,10 +55367,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2113">
@@ -55430,10 +55386,8 @@
       <c r="D2113" t="inlineStr"/>
       <c r="E2113" t="inlineStr"/>
       <c r="F2113" t="inlineStr"/>
-      <c r="G2113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2114">
@@ -55459,10 +55413,8 @@
         </is>
       </c>
       <c r="F2114" t="inlineStr"/>
-      <c r="G2114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2115">
@@ -55484,10 +55436,8 @@
       </c>
       <c r="E2115" t="inlineStr"/>
       <c r="F2115" t="inlineStr"/>
-      <c r="G2115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2116">
@@ -55509,10 +55459,8 @@
       </c>
       <c r="E2116" t="inlineStr"/>
       <c r="F2116" t="inlineStr"/>
-      <c r="G2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -55534,10 +55482,8 @@
       </c>
       <c r="E2117" t="inlineStr"/>
       <c r="F2117" t="inlineStr"/>
-      <c r="G2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -55559,10 +55505,8 @@
       </c>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr"/>
-      <c r="G2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -55584,10 +55528,8 @@
       </c>
       <c r="E2119" t="inlineStr"/>
       <c r="F2119" t="inlineStr"/>
-      <c r="G2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -55605,10 +55547,8 @@
       <c r="D2120" t="inlineStr"/>
       <c r="E2120" t="inlineStr"/>
       <c r="F2120" t="inlineStr"/>
-      <c r="G2120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2121">
@@ -55626,10 +55566,8 @@
       <c r="D2121" t="inlineStr"/>
       <c r="E2121" t="inlineStr"/>
       <c r="F2121" t="inlineStr"/>
-      <c r="G2121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2122">
@@ -55651,38 +55589,48 @@
       </c>
       <c r="E2122" t="inlineStr"/>
       <c r="F2122" t="inlineStr"/>
-      <c r="G2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2123" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
+        </is>
+      </c>
       <c r="C2123" t="inlineStr"/>
       <c r="D2123" t="inlineStr"/>
       <c r="E2123" t="inlineStr"/>
       <c r="F2123" t="inlineStr"/>
-      <c r="G2123" t="inlineStr"/>
+      <c r="G2123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2124">
       <c r="A2124" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C2124" t="inlineStr"/>
-      <c r="D2124" t="inlineStr"/>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>18.3</t>
+        </is>
+      </c>
       <c r="E2124" t="inlineStr"/>
       <c r="F2124" t="inlineStr"/>
       <c r="G2124" t="inlineStr">
@@ -55694,18 +55642,18 @@
     <row r="2125">
       <c r="A2125" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr"/>
       <c r="D2125" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="E2125" t="inlineStr"/>
@@ -55719,18 +55667,18 @@
     <row r="2126">
       <c r="A2126" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2126" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C2126" t="inlineStr"/>
       <c r="D2126" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E2126" t="inlineStr"/>
@@ -55744,81 +55692,105 @@
     <row r="2127">
       <c r="A2127" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2127" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C2127" t="inlineStr"/>
       <c r="D2127" t="inlineStr">
         <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2127" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2127" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="E2127" t="inlineStr"/>
+      <c r="F2127" t="inlineStr"/>
       <c r="G2127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2128" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>Philly Fed Prices PaidJUL</t>
+        </is>
+      </c>
       <c r="C2128" t="inlineStr"/>
-      <c r="D2128" t="inlineStr"/>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
       <c r="E2128" t="inlineStr"/>
       <c r="F2128" t="inlineStr"/>
-      <c r="G2128" t="inlineStr"/>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2129" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
+        </is>
+      </c>
       <c r="C2129" t="inlineStr"/>
-      <c r="D2129" t="inlineStr"/>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="E2129" t="inlineStr"/>
-      <c r="F2129" t="inlineStr"/>
-      <c r="G2129" t="inlineStr"/>
+      <c r="F2129" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr"/>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>4.255%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr"/>
-      <c r="F2130" t="inlineStr"/>
+      <c r="F2130" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G2130" t="inlineStr">
         <is>
           <t>3</t>
@@ -55828,59 +55800,83 @@
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr"/>
       <c r="D2131" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2131" t="inlineStr"/>
-      <c r="F2131" t="inlineStr"/>
+      <c r="F2131" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2132" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>NAHB Housing Market IndexJUL</t>
+        </is>
+      </c>
       <c r="C2132" t="inlineStr"/>
-      <c r="D2132" t="inlineStr"/>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="E2132" t="inlineStr"/>
-      <c r="F2132" t="inlineStr"/>
-      <c r="G2132" t="inlineStr"/>
+      <c r="F2132" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G2132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2133" t="inlineStr"/>
       <c r="D2133" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2133" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E2133" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2133" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -55888,178 +55884,134 @@
       </c>
       <c r="G2133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2134" t="inlineStr"/>
-      <c r="D2134" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="D2134" t="inlineStr"/>
       <c r="E2134" t="inlineStr"/>
-      <c r="F2134" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F2134" t="inlineStr"/>
       <c r="G2134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
-      <c r="D2135" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2135" t="inlineStr"/>
       <c r="E2135" t="inlineStr"/>
-      <c r="F2135" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2135" t="inlineStr"/>
       <c r="G2135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr"/>
-      <c r="D2136" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D2136" t="inlineStr"/>
       <c r="E2136" t="inlineStr"/>
-      <c r="F2136" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="F2136" t="inlineStr"/>
       <c r="G2136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2137" t="inlineStr"/>
-      <c r="D2137" t="inlineStr">
-        <is>
-          <t>321.465</t>
-        </is>
-      </c>
+      <c r="D2137" t="inlineStr"/>
       <c r="E2137" t="inlineStr"/>
-      <c r="F2137" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
+      <c r="F2137" t="inlineStr"/>
       <c r="G2137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr"/>
-      <c r="D2138" t="inlineStr">
-        <is>
-          <t>320.580</t>
-        </is>
-      </c>
+      <c r="D2138" t="inlineStr"/>
       <c r="E2138" t="inlineStr"/>
-      <c r="F2138" t="inlineStr">
-        <is>
-          <t>321.2</t>
-        </is>
-      </c>
+      <c r="F2138" t="inlineStr"/>
       <c r="G2138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
       <c r="D2139" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>$-7.8B</t>
         </is>
       </c>
       <c r="E2139" t="inlineStr"/>
-      <c r="F2139" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+      <c r="F2139" t="inlineStr"/>
       <c r="G2139" t="inlineStr">
         <is>
           <t>2</t>
@@ -56069,18 +56021,18 @@
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
       <c r="D2140" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2140" t="inlineStr"/>
@@ -56094,16 +56046,20 @@
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
-      <c r="D2141" t="inlineStr"/>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>$-14.2B</t>
+        </is>
+      </c>
       <c r="E2141" t="inlineStr"/>
       <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
@@ -56120,27 +56076,23 @@
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr"/>
-      <c r="D2142" t="inlineStr">
-        <is>
-          <t>7.1M</t>
-        </is>
-      </c>
+      <c r="D2142" t="inlineStr"/>
       <c r="E2142" t="inlineStr"/>
       <c r="F2142" t="inlineStr"/>
       <c r="G2142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
+          <t>Friday July 18 2025</t>
         </is>
       </c>
       <c r="B2143" t="inlineStr"/>
@@ -56153,207 +56105,227 @@
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr"/>
       <c r="D2144" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2144" t="inlineStr"/>
-      <c r="F2144" t="inlineStr"/>
+      <c r="F2144" t="inlineStr">
+        <is>
+          <t>1.37M</t>
+        </is>
+      </c>
       <c r="G2144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr"/>
       <c r="D2145" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>1.256M</t>
         </is>
       </c>
       <c r="E2145" t="inlineStr"/>
-      <c r="F2145" t="inlineStr"/>
+      <c r="F2145" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G2145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr"/>
       <c r="D2146" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2146" t="inlineStr"/>
-      <c r="F2146" t="inlineStr"/>
+      <c r="F2146" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G2146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E2147" t="inlineStr"/>
-      <c r="F2147" t="inlineStr"/>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G2147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2148" t="inlineStr"/>
       <c r="D2148" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="E2148" t="inlineStr"/>
-      <c r="F2148" t="inlineStr"/>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G2148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr"/>
       <c r="D2149" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E2149" t="inlineStr"/>
       <c r="F2149" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G2149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E2150" t="inlineStr"/>
       <c r="F2150" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G2150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr"/>
       <c r="D2151" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E2151" t="inlineStr"/>
       <c r="F2151" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="G2151" t="inlineStr">
@@ -56365,24 +56337,24 @@
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
       <c r="D2152" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2152" t="inlineStr"/>
       <c r="F2152" t="inlineStr">
         <is>
-          <t>148.9</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G2152" t="inlineStr">
@@ -56394,26 +56366,18 @@
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
-      <c r="D2153" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2153" t="inlineStr"/>
       <c r="E2153" t="inlineStr"/>
-      <c r="F2153" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2153" t="inlineStr"/>
       <c r="G2153" t="inlineStr">
         <is>
           <t>3</t>
@@ -56423,26 +56387,18 @@
     <row r="2154">
       <c r="A2154" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
-      <c r="D2154" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D2154" t="inlineStr"/>
       <c r="E2154" t="inlineStr"/>
-      <c r="F2154" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F2154" t="inlineStr"/>
       <c r="G2154" t="inlineStr">
         <is>
           <t>3</t>
@@ -56452,1601 +56408,15 @@
     <row r="2155">
       <c r="A2155" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2155" t="inlineStr">
-        <is>
-          <t>PPI YoYJUN</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr"/>
       <c r="C2155" t="inlineStr"/>
-      <c r="D2155" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="D2155" t="inlineStr"/>
       <c r="E2155" t="inlineStr"/>
-      <c r="F2155" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G2155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2156">
-      <c r="A2156" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2156" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C2156" t="inlineStr"/>
-      <c r="D2156" t="inlineStr"/>
-      <c r="E2156" t="inlineStr"/>
-      <c r="F2156" t="inlineStr"/>
-      <c r="G2156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2157">
-      <c r="A2157" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2157" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2157" t="inlineStr"/>
-      <c r="D2157" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E2157" t="inlineStr"/>
-      <c r="F2157" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2158">
-      <c r="A2158" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2158" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJUN</t>
-        </is>
-      </c>
-      <c r="C2158" t="inlineStr"/>
-      <c r="D2158" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E2158" t="inlineStr"/>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G2158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2159">
-      <c r="A2159" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2159" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2159" t="inlineStr"/>
-      <c r="D2159" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E2159" t="inlineStr"/>
-      <c r="F2159" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="G2159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2160">
-      <c r="A2160" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2160" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2160" t="inlineStr"/>
-      <c r="D2160" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2160" t="inlineStr"/>
-      <c r="F2160" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2161">
-      <c r="A2161" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2161" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2161" t="inlineStr"/>
-      <c r="D2161" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2161" t="inlineStr"/>
-      <c r="F2161" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2162">
-      <c r="A2162" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2162" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2162" t="inlineStr"/>
-      <c r="D2162" t="inlineStr">
-        <is>
-          <t>7.07M</t>
-        </is>
-      </c>
-      <c r="E2162" t="inlineStr"/>
-      <c r="F2162" t="inlineStr"/>
-      <c r="G2162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2163">
-      <c r="A2163" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2163" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2163" t="inlineStr"/>
-      <c r="D2163" t="inlineStr">
-        <is>
-          <t>-2.658M</t>
-        </is>
-      </c>
-      <c r="E2163" t="inlineStr"/>
-      <c r="F2163" t="inlineStr"/>
-      <c r="G2163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2164">
-      <c r="A2164" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2164" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2164" t="inlineStr"/>
-      <c r="D2164" t="inlineStr">
-        <is>
-          <t>-1.358M</t>
-        </is>
-      </c>
-      <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr"/>
-      <c r="G2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2165">
-      <c r="A2165" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2165" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2165" t="inlineStr"/>
-      <c r="D2165" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E2165" t="inlineStr"/>
-      <c r="F2165" t="inlineStr"/>
-      <c r="G2165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2166">
-      <c r="A2166" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2166" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2166" t="inlineStr"/>
-      <c r="D2166" t="inlineStr">
-        <is>
-          <t>0.059M</t>
-        </is>
-      </c>
-      <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr"/>
-      <c r="G2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2167">
-      <c r="A2167" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2167" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2167" t="inlineStr"/>
-      <c r="D2167" t="inlineStr">
-        <is>
-          <t>-0.825M</t>
-        </is>
-      </c>
-      <c r="E2167" t="inlineStr"/>
-      <c r="F2167" t="inlineStr"/>
-      <c r="G2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2168">
-      <c r="A2168" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2168" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2168" t="inlineStr"/>
-      <c r="D2168" t="inlineStr">
-        <is>
-          <t>0.278M</t>
-        </is>
-      </c>
-      <c r="E2168" t="inlineStr"/>
-      <c r="F2168" t="inlineStr"/>
-      <c r="G2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2169">
-      <c r="A2169" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2169" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2169" t="inlineStr"/>
-      <c r="D2169" t="inlineStr">
-        <is>
-          <t>0.603M</t>
-        </is>
-      </c>
-      <c r="E2169" t="inlineStr"/>
-      <c r="F2169" t="inlineStr"/>
-      <c r="G2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2170">
-      <c r="A2170" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2170" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2170" t="inlineStr"/>
-      <c r="D2170" t="inlineStr">
-        <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
-      <c r="E2170" t="inlineStr"/>
-      <c r="F2170" t="inlineStr"/>
-      <c r="G2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2171">
-      <c r="A2171" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2171" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2171" t="inlineStr"/>
-      <c r="D2171" t="inlineStr"/>
-      <c r="E2171" t="inlineStr"/>
-      <c r="F2171" t="inlineStr"/>
-      <c r="G2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2172">
-      <c r="A2172" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2172" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C2172" t="inlineStr"/>
-      <c r="D2172" t="inlineStr"/>
-      <c r="E2172" t="inlineStr"/>
-      <c r="F2172" t="inlineStr"/>
-      <c r="G2172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2173">
-      <c r="A2173" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2173" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C2173" t="inlineStr"/>
-      <c r="D2173" t="inlineStr"/>
-      <c r="E2173" t="inlineStr"/>
-      <c r="F2173" t="inlineStr"/>
-      <c r="G2173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2174">
-      <c r="A2174" t="inlineStr">
-        <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B2174" t="inlineStr"/>
-      <c r="C2174" t="inlineStr"/>
-      <c r="D2174" t="inlineStr"/>
-      <c r="E2174" t="inlineStr"/>
-      <c r="F2174" t="inlineStr"/>
-      <c r="G2174" t="inlineStr"/>
-    </row>
-    <row r="2175">
-      <c r="A2175" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2175" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2175" t="inlineStr"/>
-      <c r="D2175" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2175" t="inlineStr"/>
-      <c r="F2175" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2175" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2176">
-      <c r="A2176" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2176" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2176" t="inlineStr"/>
-      <c r="D2176" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2176" t="inlineStr"/>
-      <c r="F2176" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2177">
-      <c r="A2177" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2177" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2178">
-      <c r="A2178" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2178" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr"/>
-      <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
-      <c r="G2178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2179">
-      <c r="A2179" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2179" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G2179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2180">
-      <c r="A2180" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2180" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2180" t="inlineStr"/>
-      <c r="D2180" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2180" t="inlineStr"/>
-      <c r="F2180" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2181">
-      <c r="A2181" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2181" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2181" t="inlineStr"/>
-      <c r="D2181" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2181" t="inlineStr"/>
-      <c r="F2181" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2182">
-      <c r="A2182" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2182" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C2182" t="inlineStr"/>
-      <c r="D2182" t="inlineStr"/>
-      <c r="E2182" t="inlineStr"/>
-      <c r="F2182" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G2182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2183">
-      <c r="A2183" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2183" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2183" t="inlineStr"/>
-      <c r="F2183" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2184">
-      <c r="A2184" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2184" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2184" t="inlineStr"/>
-      <c r="D2184" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2184" t="inlineStr"/>
-      <c r="F2184" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2185">
-      <c r="A2185" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2185" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C2185" t="inlineStr"/>
-      <c r="D2185" t="inlineStr"/>
-      <c r="E2185" t="inlineStr"/>
-      <c r="F2185" t="inlineStr"/>
-      <c r="G2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2186" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C2186" t="inlineStr"/>
-      <c r="D2186" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E2186" t="inlineStr"/>
-      <c r="F2186" t="inlineStr"/>
-      <c r="G2186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2187" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E2187" t="inlineStr"/>
-      <c r="F2187" t="inlineStr"/>
-      <c r="G2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2188" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr"/>
-      <c r="G2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2189" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C2189" t="inlineStr"/>
-      <c r="D2189" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr"/>
-      <c r="G2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2190" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C2190" t="inlineStr"/>
-      <c r="D2190" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E2190" t="inlineStr"/>
-      <c r="F2190" t="inlineStr"/>
-      <c r="G2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2191" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2191" t="inlineStr"/>
-      <c r="D2191" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2191" t="inlineStr"/>
-      <c r="F2191" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2192" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2192" t="inlineStr"/>
-      <c r="D2192" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2192" t="inlineStr"/>
-      <c r="F2192" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2193" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2193" t="inlineStr"/>
-      <c r="D2193" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2193" t="inlineStr"/>
-      <c r="F2193" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2194" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2194" t="inlineStr"/>
-      <c r="D2194" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E2194" t="inlineStr"/>
-      <c r="F2194" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G2194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2195">
-      <c r="A2195" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2195" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2195" t="inlineStr"/>
-      <c r="D2195" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2195" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2195" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2196">
-      <c r="A2196" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2196" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2196" t="inlineStr"/>
-      <c r="D2196" t="inlineStr"/>
-      <c r="E2196" t="inlineStr"/>
-      <c r="F2196" t="inlineStr"/>
-      <c r="G2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2197">
-      <c r="A2197" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2197" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2197" t="inlineStr"/>
-      <c r="D2197" t="inlineStr"/>
-      <c r="E2197" t="inlineStr"/>
-      <c r="F2197" t="inlineStr"/>
-      <c r="G2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2198">
-      <c r="A2198" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2198" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2198" t="inlineStr"/>
-      <c r="D2198" t="inlineStr"/>
-      <c r="E2198" t="inlineStr"/>
-      <c r="F2198" t="inlineStr"/>
-      <c r="G2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2199">
-      <c r="A2199" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2199" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2199" t="inlineStr"/>
-      <c r="D2199" t="inlineStr"/>
-      <c r="E2199" t="inlineStr"/>
-      <c r="F2199" t="inlineStr"/>
-      <c r="G2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2200">
-      <c r="A2200" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2200" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2200" t="inlineStr"/>
-      <c r="D2200" t="inlineStr"/>
-      <c r="E2200" t="inlineStr"/>
-      <c r="F2200" t="inlineStr"/>
-      <c r="G2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2201">
-      <c r="A2201" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2201" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2201" t="inlineStr"/>
-      <c r="D2201" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E2201" t="inlineStr"/>
-      <c r="F2201" t="inlineStr"/>
-      <c r="G2201" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2202">
-      <c r="A2202" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2202" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C2202" t="inlineStr"/>
-      <c r="D2202" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E2202" t="inlineStr"/>
-      <c r="F2202" t="inlineStr"/>
-      <c r="G2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2203">
-      <c r="A2203" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2203" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2203" t="inlineStr"/>
-      <c r="D2203" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E2203" t="inlineStr"/>
-      <c r="F2203" t="inlineStr"/>
-      <c r="G2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2204">
-      <c r="A2204" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2204" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C2204" t="inlineStr"/>
-      <c r="D2204" t="inlineStr"/>
-      <c r="E2204" t="inlineStr"/>
-      <c r="F2204" t="inlineStr"/>
-      <c r="G2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2205">
-      <c r="A2205" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2205" t="inlineStr"/>
-      <c r="C2205" t="inlineStr"/>
-      <c r="D2205" t="inlineStr"/>
-      <c r="E2205" t="inlineStr"/>
-      <c r="F2205" t="inlineStr"/>
-      <c r="G2205" t="inlineStr"/>
-    </row>
-    <row r="2206">
-      <c r="A2206" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2206" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2206" t="inlineStr"/>
-      <c r="D2206" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2206" t="inlineStr"/>
-      <c r="F2206" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G2206" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2207">
-      <c r="A2207" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2207" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C2207" t="inlineStr"/>
-      <c r="D2207" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2207" t="inlineStr"/>
-      <c r="F2207" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2208">
-      <c r="A2208" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2208" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2208" t="inlineStr"/>
-      <c r="D2208" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E2208" t="inlineStr"/>
-      <c r="F2208" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2209">
-      <c r="A2209" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2209" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2209" t="inlineStr"/>
-      <c r="D2209" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E2209" t="inlineStr"/>
-      <c r="F2209" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2210">
-      <c r="A2210" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2210" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2210" t="inlineStr"/>
-      <c r="D2210" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2210" t="inlineStr"/>
-      <c r="F2210" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2211">
-      <c r="A2211" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2211" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2211" t="inlineStr"/>
-      <c r="D2211" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2211" t="inlineStr"/>
-      <c r="F2211" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2212">
-      <c r="A2212" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2212" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2212" t="inlineStr"/>
-      <c r="D2212" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2212" t="inlineStr"/>
-      <c r="F2212" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2213">
-      <c r="A2213" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2213" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2213" t="inlineStr"/>
-      <c r="D2213" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2213" t="inlineStr"/>
-      <c r="F2213" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2214">
-      <c r="A2214" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2214" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2214" t="inlineStr"/>
-      <c r="D2214" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E2214" t="inlineStr"/>
-      <c r="F2214" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2215">
-      <c r="A2215" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2215" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2215" t="inlineStr"/>
-      <c r="D2215" t="inlineStr"/>
-      <c r="E2215" t="inlineStr"/>
-      <c r="F2215" t="inlineStr"/>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2216">
-      <c r="A2216" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2216" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2216" t="inlineStr"/>
-      <c r="D2216" t="inlineStr"/>
-      <c r="E2216" t="inlineStr"/>
-      <c r="F2216" t="inlineStr"/>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2217">
-      <c r="A2217" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2217" t="inlineStr"/>
-      <c r="C2217" t="inlineStr"/>
-      <c r="D2217" t="inlineStr"/>
-      <c r="E2217" t="inlineStr"/>
-      <c r="F2217" t="inlineStr"/>
-      <c r="G2217" t="inlineStr"/>
+      <c r="F2155" t="inlineStr"/>
+      <c r="G2155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2198"/>
+  <dimension ref="A1:G2158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54788,10 +54788,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2091" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2092">
@@ -54821,10 +54819,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -54850,10 +54846,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -54871,10 +54865,8 @@
       <c r="D2094" t="inlineStr"/>
       <c r="E2094" t="inlineStr"/>
       <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2094" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2095">
@@ -54900,10 +54892,8 @@
         </is>
       </c>
       <c r="F2095" t="inlineStr"/>
-      <c r="G2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -54925,10 +54915,8 @@
       </c>
       <c r="E2096" t="inlineStr"/>
       <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2097">
@@ -54950,10 +54938,8 @@
       </c>
       <c r="E2097" t="inlineStr"/>
       <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2098">
@@ -54975,10 +54961,8 @@
       </c>
       <c r="E2098" t="inlineStr"/>
       <c r="F2098" t="inlineStr"/>
-      <c r="G2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -55000,10 +54984,8 @@
       </c>
       <c r="E2099" t="inlineStr"/>
       <c r="F2099" t="inlineStr"/>
-      <c r="G2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
@@ -55025,10 +55007,8 @@
       </c>
       <c r="E2100" t="inlineStr"/>
       <c r="F2100" t="inlineStr"/>
-      <c r="G2100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2101">
@@ -55046,10 +55026,8 @@
       <c r="D2101" t="inlineStr"/>
       <c r="E2101" t="inlineStr"/>
       <c r="F2101" t="inlineStr"/>
-      <c r="G2101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2102">
@@ -55067,10 +55045,8 @@
       <c r="D2102" t="inlineStr"/>
       <c r="E2102" t="inlineStr"/>
       <c r="F2102" t="inlineStr"/>
-      <c r="G2102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2103">
@@ -55092,38 +55068,52 @@
       </c>
       <c r="E2103" t="inlineStr"/>
       <c r="F2103" t="inlineStr"/>
-      <c r="G2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2104">
       <c r="A2104" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2104" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2104" t="inlineStr"/>
-      <c r="D2104" t="inlineStr"/>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>-2.658M</t>
+        </is>
+      </c>
       <c r="E2104" t="inlineStr"/>
       <c r="F2104" t="inlineStr"/>
-      <c r="G2104" t="inlineStr"/>
+      <c r="G2104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2105">
       <c r="A2105" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2105" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>EIA Crude Oil Imports ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2105" t="inlineStr"/>
-      <c r="D2105" t="inlineStr"/>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>-1.358M</t>
+        </is>
+      </c>
       <c r="E2105" t="inlineStr"/>
       <c r="F2105" t="inlineStr"/>
       <c r="G2105" t="inlineStr">
@@ -55135,18 +55125,18 @@
     <row r="2106">
       <c r="A2106" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2106" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2106" t="inlineStr"/>
       <c r="D2106" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>0.464M</t>
         </is>
       </c>
       <c r="E2106" t="inlineStr"/>
@@ -55160,18 +55150,18 @@
     <row r="2107">
       <c r="A2107" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2107" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2107" t="inlineStr"/>
       <c r="D2107" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>0.059M</t>
         </is>
       </c>
       <c r="E2107" t="inlineStr"/>
@@ -55185,77 +55175,93 @@
     <row r="2108">
       <c r="A2108" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2108" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2108" t="inlineStr"/>
       <c r="D2108" t="inlineStr">
         <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2108" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2108" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+          <t>-0.825M</t>
+        </is>
+      </c>
+      <c r="E2108" t="inlineStr"/>
+      <c r="F2108" t="inlineStr"/>
       <c r="G2108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2109">
       <c r="A2109" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2109" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2109" t="inlineStr"/>
-      <c r="D2109" t="inlineStr"/>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>0.278M</t>
+        </is>
+      </c>
       <c r="E2109" t="inlineStr"/>
       <c r="F2109" t="inlineStr"/>
-      <c r="G2109" t="inlineStr"/>
+      <c r="G2109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2110">
       <c r="A2110" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2110" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2110" t="inlineStr"/>
-      <c r="D2110" t="inlineStr"/>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>0.603M</t>
+        </is>
+      </c>
       <c r="E2110" t="inlineStr"/>
       <c r="F2110" t="inlineStr"/>
-      <c r="G2110" t="inlineStr"/>
+      <c r="G2110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2111">
       <c r="A2111" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2111" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2111" t="inlineStr"/>
       <c r="D2111" t="inlineStr">
         <is>
-          <t>4.255%</t>
+          <t>-0.099M</t>
         </is>
       </c>
       <c r="E2111" t="inlineStr"/>
@@ -55274,15 +55280,11 @@
       </c>
       <c r="B2112" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2112" t="inlineStr"/>
-      <c r="D2112" t="inlineStr">
-        <is>
-          <t>4.145%</t>
-        </is>
-      </c>
+      <c r="D2112" t="inlineStr"/>
       <c r="E2112" t="inlineStr"/>
       <c r="F2112" t="inlineStr"/>
       <c r="G2112" t="inlineStr">
@@ -55294,73 +55296,57 @@
     <row r="2113">
       <c r="A2113" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2113" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>Fed Beige Book</t>
+        </is>
+      </c>
       <c r="C2113" t="inlineStr"/>
       <c r="D2113" t="inlineStr"/>
       <c r="E2113" t="inlineStr"/>
       <c r="F2113" t="inlineStr"/>
-      <c r="G2113" t="inlineStr"/>
+      <c r="G2113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2114">
       <c r="A2114" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2114" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C2114" t="inlineStr"/>
-      <c r="D2114" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2114" t="inlineStr"/>
       <c r="E2114" t="inlineStr"/>
-      <c r="F2114" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2114" t="inlineStr"/>
       <c r="G2114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2115" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr"/>
       <c r="C2115" t="inlineStr"/>
-      <c r="D2115" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="D2115" t="inlineStr"/>
       <c r="E2115" t="inlineStr"/>
-      <c r="F2115" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F2115" t="inlineStr"/>
+      <c r="G2115" t="inlineStr"/>
     </row>
     <row r="2116">
       <c r="A2116" t="inlineStr">
@@ -55370,13 +55356,13 @@
       </c>
       <c r="B2116" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2116" t="inlineStr"/>
       <c r="D2116" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E2116" t="inlineStr"/>
@@ -55399,24 +55385,24 @@
       </c>
       <c r="B2117" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2117" t="inlineStr"/>
       <c r="D2117" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E2117" t="inlineStr"/>
       <c r="F2117" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55428,19 +55414,19 @@
       </c>
       <c r="B2118" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Import Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2118" t="inlineStr"/>
       <c r="D2118" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2118" t="inlineStr">
@@ -55457,21 +55443,13 @@
       </c>
       <c r="B2119" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2119" t="inlineStr"/>
-      <c r="D2119" t="inlineStr">
-        <is>
-          <t>320.580</t>
-        </is>
-      </c>
+      <c r="D2119" t="inlineStr"/>
       <c r="E2119" t="inlineStr"/>
-      <c r="F2119" t="inlineStr">
-        <is>
-          <t>321.2</t>
-        </is>
-      </c>
+      <c r="F2119" t="inlineStr"/>
       <c r="G2119" t="inlineStr">
         <is>
           <t>2</t>
@@ -55486,19 +55464,19 @@
       </c>
       <c r="B2120" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C2120" t="inlineStr"/>
       <c r="D2120" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E2120" t="inlineStr"/>
       <c r="F2120" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G2120" t="inlineStr">
@@ -55510,129 +55488,157 @@
     <row r="2121">
       <c r="A2121" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2121" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Retail Sales Control Group MoMJUN</t>
         </is>
       </c>
       <c r="C2121" t="inlineStr"/>
       <c r="D2121" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E2121" t="inlineStr"/>
-      <c r="F2121" t="inlineStr"/>
+      <c r="F2121" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2122" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2122" t="inlineStr"/>
-      <c r="D2122" t="inlineStr"/>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="E2122" t="inlineStr"/>
-      <c r="F2122" t="inlineStr"/>
+      <c r="F2122" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2123" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C2123" t="inlineStr"/>
-      <c r="D2123" t="inlineStr">
-        <is>
-          <t>7.1M</t>
-        </is>
-      </c>
+      <c r="D2123" t="inlineStr"/>
       <c r="E2123" t="inlineStr"/>
-      <c r="F2123" t="inlineStr"/>
+      <c r="F2123" t="inlineStr">
+        <is>
+          <t>1970.0K</t>
+        </is>
+      </c>
       <c r="G2123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2124">
       <c r="A2124" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2124" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>Export Prices YoYJUN</t>
+        </is>
+      </c>
       <c r="C2124" t="inlineStr"/>
-      <c r="D2124" t="inlineStr"/>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="E2124" t="inlineStr"/>
-      <c r="F2124" t="inlineStr"/>
-      <c r="G2124" t="inlineStr"/>
+      <c r="F2124" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="G2124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2125">
       <c r="A2125" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr"/>
       <c r="D2125" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2125" t="inlineStr"/>
-      <c r="F2125" t="inlineStr"/>
+      <c r="F2125" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2126">
       <c r="A2126" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2126" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C2126" t="inlineStr"/>
-      <c r="D2126" t="inlineStr">
-        <is>
-          <t>9.4%</t>
-        </is>
-      </c>
+      <c r="D2126" t="inlineStr"/>
       <c r="E2126" t="inlineStr"/>
       <c r="F2126" t="inlineStr"/>
       <c r="G2126" t="inlineStr">
@@ -55644,18 +55650,18 @@
     <row r="2127">
       <c r="A2127" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2127" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C2127" t="inlineStr"/>
       <c r="D2127" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E2127" t="inlineStr"/>
@@ -55669,18 +55675,18 @@
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2128" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C2128" t="inlineStr"/>
       <c r="D2128" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="E2128" t="inlineStr"/>
@@ -55694,18 +55700,18 @@
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C2129" t="inlineStr"/>
       <c r="D2129" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E2129" t="inlineStr"/>
@@ -55724,24 +55730,20 @@
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr"/>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr"/>
-      <c r="F2130" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2130" t="inlineStr"/>
       <c r="G2130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -55753,24 +55755,20 @@
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr"/>
       <c r="D2131" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E2131" t="inlineStr"/>
-      <c r="F2131" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2131" t="inlineStr"/>
       <c r="G2131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -55782,19 +55780,19 @@
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr"/>
       <c r="D2132" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2132" t="inlineStr"/>
       <c r="F2132" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2132" t="inlineStr">
@@ -55811,19 +55809,19 @@
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C2133" t="inlineStr"/>
       <c r="D2133" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E2133" t="inlineStr"/>
       <c r="F2133" t="inlineStr">
         <is>
-          <t>148.9</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G2133" t="inlineStr">
@@ -55835,82 +55833,86 @@
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2134" t="inlineStr"/>
       <c r="D2134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2134" t="inlineStr"/>
       <c r="F2134" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E2135" t="inlineStr"/>
       <c r="F2135" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G2135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr"/>
       <c r="D2136" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E2136" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E2136" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2136" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2136" t="inlineStr">
@@ -55922,12 +55924,12 @@
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2137" t="inlineStr"/>
@@ -55936,62 +55938,46 @@
       <c r="F2137" t="inlineStr"/>
       <c r="G2137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr"/>
-      <c r="D2138" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="D2138" t="inlineStr"/>
       <c r="E2138" t="inlineStr"/>
-      <c r="F2138" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2138" t="inlineStr"/>
       <c r="G2138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
-      <c r="D2139" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+      <c r="D2139" t="inlineStr"/>
       <c r="E2139" t="inlineStr"/>
-      <c r="F2139" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+      <c r="F2139" t="inlineStr"/>
       <c r="G2139" t="inlineStr">
         <is>
           <t>3</t>
@@ -56001,26 +55987,18 @@
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
-      <c r="D2140" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="D2140" t="inlineStr"/>
       <c r="E2140" t="inlineStr"/>
-      <c r="F2140" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr">
         <is>
           <t>3</t>
@@ -56030,26 +56008,18 @@
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
-      <c r="D2141" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2141" t="inlineStr"/>
       <c r="E2141" t="inlineStr"/>
-      <c r="F2141" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
         <is>
           <t>3</t>
@@ -56059,99 +56029,91 @@
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr"/>
       <c r="D2142" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$-7.8B</t>
         </is>
       </c>
       <c r="E2142" t="inlineStr"/>
-      <c r="F2142" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F2142" t="inlineStr"/>
       <c r="G2142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2143" t="inlineStr"/>
       <c r="D2143" t="inlineStr">
         <is>
-          <t>7.07M</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2143" t="inlineStr"/>
       <c r="F2143" t="inlineStr"/>
       <c r="G2143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr"/>
       <c r="D2144" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr"/>
       <c r="G2144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr"/>
-      <c r="D2145" t="inlineStr">
-        <is>
-          <t>-1.358M</t>
-        </is>
-      </c>
+      <c r="D2145" t="inlineStr"/>
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
       <c r="G2145" t="inlineStr">
@@ -56163,168 +56125,184 @@
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2146" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr"/>
       <c r="C2146" t="inlineStr"/>
-      <c r="D2146" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
+      <c r="D2146" t="inlineStr"/>
       <c r="E2146" t="inlineStr"/>
       <c r="F2146" t="inlineStr"/>
-      <c r="G2146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2146" t="inlineStr"/>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2147" t="inlineStr"/>
-      <c r="F2147" t="inlineStr"/>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>1.37M</t>
+        </is>
+      </c>
       <c r="G2147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2148" t="inlineStr"/>
       <c r="D2148" t="inlineStr">
         <is>
-          <t>-0.825M</t>
+          <t>1.256M</t>
         </is>
       </c>
       <c r="E2148" t="inlineStr"/>
-      <c r="F2148" t="inlineStr"/>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G2148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr"/>
       <c r="D2149" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2149" t="inlineStr"/>
-      <c r="F2149" t="inlineStr"/>
+      <c r="F2149" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G2149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E2150" t="inlineStr"/>
-      <c r="F2150" t="inlineStr"/>
+      <c r="F2150" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G2150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr"/>
       <c r="D2151" t="inlineStr">
         <is>
-          <t>-0.099M</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="E2151" t="inlineStr"/>
-      <c r="F2151" t="inlineStr"/>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G2151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
-      <c r="D2152" t="inlineStr"/>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E2152" t="inlineStr"/>
-      <c r="F2152" t="inlineStr"/>
+      <c r="F2152" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G2152" t="inlineStr">
         <is>
           <t>3</t>
@@ -56334,18 +56312,26 @@
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
-      <c r="D2153" t="inlineStr"/>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>58.1</t>
+        </is>
+      </c>
       <c r="E2153" t="inlineStr"/>
-      <c r="F2153" t="inlineStr"/>
+      <c r="F2153" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2153" t="inlineStr">
         <is>
           <t>3</t>
@@ -56355,1139 +56341,115 @@
     <row r="2154">
       <c r="A2154" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
-      <c r="D2154" t="inlineStr"/>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>64.8</t>
+        </is>
+      </c>
       <c r="E2154" t="inlineStr"/>
-      <c r="F2154" t="inlineStr"/>
+      <c r="F2154" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
       <c r="G2154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2155">
       <c r="A2155" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B2155" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C2155" t="inlineStr"/>
-      <c r="D2155" t="inlineStr"/>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="E2155" t="inlineStr"/>
-      <c r="F2155" t="inlineStr"/>
-      <c r="G2155" t="inlineStr"/>
+      <c r="F2155" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="G2155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2156">
       <c r="A2156" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJUN</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr"/>
-      <c r="D2156" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="D2156" t="inlineStr"/>
       <c r="E2156" t="inlineStr"/>
-      <c r="F2156" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2156" t="inlineStr"/>
       <c r="G2156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2157">
       <c r="A2157" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2157" t="inlineStr">
         <is>
-          <t>Export Prices MoMJUN</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2157" t="inlineStr"/>
-      <c r="D2157" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="D2157" t="inlineStr"/>
       <c r="E2157" t="inlineStr"/>
-      <c r="F2157" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F2157" t="inlineStr"/>
       <c r="G2157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2158" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr"/>
       <c r="C2158" t="inlineStr"/>
-      <c r="D2158" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="D2158" t="inlineStr"/>
       <c r="E2158" t="inlineStr"/>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2159">
-      <c r="A2159" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2159" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2159" t="inlineStr"/>
-      <c r="D2159" t="inlineStr"/>
-      <c r="E2159" t="inlineStr"/>
-      <c r="F2159" t="inlineStr"/>
-      <c r="G2159" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2160">
-      <c r="A2160" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2160" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2160" t="inlineStr"/>
-      <c r="D2160" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E2160" t="inlineStr"/>
-      <c r="F2160" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G2160" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2161">
-      <c r="A2161" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2161" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2161" t="inlineStr"/>
-      <c r="D2161" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2161" t="inlineStr"/>
-      <c r="F2161" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2161" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2162">
-      <c r="A2162" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2162" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2162" t="inlineStr"/>
-      <c r="D2162" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2162" t="inlineStr"/>
-      <c r="F2162" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2163">
-      <c r="A2163" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2163" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C2163" t="inlineStr"/>
-      <c r="D2163" t="inlineStr"/>
-      <c r="E2163" t="inlineStr"/>
-      <c r="F2163" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G2163" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2164">
-      <c r="A2164" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2164" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2164" t="inlineStr"/>
-      <c r="D2164" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2165">
-      <c r="A2165" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2165" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2165" t="inlineStr"/>
-      <c r="D2165" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2165" t="inlineStr"/>
-      <c r="F2165" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2166">
-      <c r="A2166" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2166" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C2166" t="inlineStr"/>
-      <c r="D2166" t="inlineStr"/>
-      <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr"/>
-      <c r="G2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2167">
-      <c r="A2167" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2167" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C2167" t="inlineStr"/>
-      <c r="D2167" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E2167" t="inlineStr"/>
-      <c r="F2167" t="inlineStr"/>
-      <c r="G2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2168">
-      <c r="A2168" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2168" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2168" t="inlineStr"/>
-      <c r="D2168" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E2168" t="inlineStr"/>
-      <c r="F2168" t="inlineStr"/>
-      <c r="G2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2169">
-      <c r="A2169" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2169" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C2169" t="inlineStr"/>
-      <c r="D2169" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E2169" t="inlineStr"/>
-      <c r="F2169" t="inlineStr"/>
-      <c r="G2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2170">
-      <c r="A2170" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2170" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C2170" t="inlineStr"/>
-      <c r="D2170" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E2170" t="inlineStr"/>
-      <c r="F2170" t="inlineStr"/>
-      <c r="G2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2171">
-      <c r="A2171" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2171" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C2171" t="inlineStr"/>
-      <c r="D2171" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E2171" t="inlineStr"/>
-      <c r="F2171" t="inlineStr"/>
-      <c r="G2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2172">
-      <c r="A2172" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2172" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2172" t="inlineStr"/>
-      <c r="D2172" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2172" t="inlineStr"/>
-      <c r="F2172" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2173">
-      <c r="A2173" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2173" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2173" t="inlineStr"/>
-      <c r="D2173" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2173" t="inlineStr"/>
-      <c r="F2173" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2174">
-      <c r="A2174" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2174" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2174" t="inlineStr"/>
-      <c r="D2174" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2174" t="inlineStr"/>
-      <c r="F2174" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2175">
-      <c r="A2175" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2175" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2175" t="inlineStr"/>
-      <c r="D2175" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E2175" t="inlineStr"/>
-      <c r="F2175" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G2175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2176">
-      <c r="A2176" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2176" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2176" t="inlineStr"/>
-      <c r="D2176" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2176" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2176" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2177">
-      <c r="A2177" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2177" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr"/>
-      <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr"/>
-      <c r="G2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2178">
-      <c r="A2178" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2178" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr"/>
-      <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
-      <c r="G2178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2179">
-      <c r="A2179" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2179" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr"/>
-      <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr"/>
-      <c r="G2179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2180">
-      <c r="A2180" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2180" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2180" t="inlineStr"/>
-      <c r="D2180" t="inlineStr"/>
-      <c r="E2180" t="inlineStr"/>
-      <c r="F2180" t="inlineStr"/>
-      <c r="G2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2181">
-      <c r="A2181" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2181" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2181" t="inlineStr"/>
-      <c r="D2181" t="inlineStr"/>
-      <c r="E2181" t="inlineStr"/>
-      <c r="F2181" t="inlineStr"/>
-      <c r="G2181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2182">
-      <c r="A2182" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2182" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2182" t="inlineStr"/>
-      <c r="D2182" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E2182" t="inlineStr"/>
-      <c r="F2182" t="inlineStr"/>
-      <c r="G2182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2183">
-      <c r="A2183" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2183" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E2183" t="inlineStr"/>
-      <c r="F2183" t="inlineStr"/>
-      <c r="G2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2184">
-      <c r="A2184" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2184" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2184" t="inlineStr"/>
-      <c r="D2184" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E2184" t="inlineStr"/>
-      <c r="F2184" t="inlineStr"/>
-      <c r="G2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2185">
-      <c r="A2185" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2185" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C2185" t="inlineStr"/>
-      <c r="D2185" t="inlineStr"/>
-      <c r="E2185" t="inlineStr"/>
-      <c r="F2185" t="inlineStr"/>
-      <c r="G2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2186" t="inlineStr"/>
-      <c r="C2186" t="inlineStr"/>
-      <c r="D2186" t="inlineStr"/>
-      <c r="E2186" t="inlineStr"/>
-      <c r="F2186" t="inlineStr"/>
-      <c r="G2186" t="inlineStr"/>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2187" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2187" t="inlineStr"/>
-      <c r="F2187" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G2187" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2188" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2188" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2189" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2189" t="inlineStr"/>
-      <c r="D2189" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G2189" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2190" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2190" t="inlineStr"/>
-      <c r="D2190" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E2190" t="inlineStr"/>
-      <c r="F2190" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2191" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2191" t="inlineStr"/>
-      <c r="D2191" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2191" t="inlineStr"/>
-      <c r="F2191" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2191" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2192" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2192" t="inlineStr"/>
-      <c r="D2192" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2192" t="inlineStr"/>
-      <c r="F2192" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2193" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2193" t="inlineStr"/>
-      <c r="D2193" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2193" t="inlineStr"/>
-      <c r="F2193" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2194" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2194" t="inlineStr"/>
-      <c r="D2194" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2194" t="inlineStr"/>
-      <c r="F2194" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2195">
-      <c r="A2195" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2195" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2195" t="inlineStr"/>
-      <c r="D2195" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E2195" t="inlineStr"/>
-      <c r="F2195" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2196">
-      <c r="A2196" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2196" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2196" t="inlineStr"/>
-      <c r="D2196" t="inlineStr"/>
-      <c r="E2196" t="inlineStr"/>
-      <c r="F2196" t="inlineStr"/>
-      <c r="G2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2197">
-      <c r="A2197" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2197" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2197" t="inlineStr"/>
-      <c r="D2197" t="inlineStr"/>
-      <c r="E2197" t="inlineStr"/>
-      <c r="F2197" t="inlineStr"/>
-      <c r="G2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2198">
-      <c r="A2198" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2198" t="inlineStr"/>
-      <c r="C2198" t="inlineStr"/>
-      <c r="D2198" t="inlineStr"/>
-      <c r="E2198" t="inlineStr"/>
-      <c r="F2198" t="inlineStr"/>
-      <c r="G2198" t="inlineStr"/>
+      <c r="F2158" t="inlineStr"/>
+      <c r="G2158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2194"/>
+  <dimension ref="A1:G2157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54763,10 +54763,8 @@
       <c r="D2090" t="inlineStr"/>
       <c r="E2090" t="inlineStr"/>
       <c r="F2090" t="inlineStr"/>
-      <c r="G2090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2091">
@@ -54792,10 +54790,8 @@
         </is>
       </c>
       <c r="F2091" t="inlineStr"/>
-      <c r="G2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -54817,10 +54813,8 @@
       </c>
       <c r="E2092" t="inlineStr"/>
       <c r="F2092" t="inlineStr"/>
-      <c r="G2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -54842,10 +54836,8 @@
       </c>
       <c r="E2093" t="inlineStr"/>
       <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -54867,10 +54859,8 @@
       </c>
       <c r="E2094" t="inlineStr"/>
       <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -54892,10 +54882,8 @@
       </c>
       <c r="E2095" t="inlineStr"/>
       <c r="F2095" t="inlineStr"/>
-      <c r="G2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -54917,10 +54905,8 @@
       </c>
       <c r="E2096" t="inlineStr"/>
       <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2097">
@@ -54938,10 +54924,8 @@
       <c r="D2097" t="inlineStr"/>
       <c r="E2097" t="inlineStr"/>
       <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2097" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2098">
@@ -54959,10 +54943,8 @@
       <c r="D2098" t="inlineStr"/>
       <c r="E2098" t="inlineStr"/>
       <c r="F2098" t="inlineStr"/>
-      <c r="G2098" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2098" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2099">
@@ -54984,40 +54966,62 @@
       </c>
       <c r="E2099" t="inlineStr"/>
       <c r="F2099" t="inlineStr"/>
-      <c r="G2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
       <c r="A2100" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2100" t="inlineStr"/>
+          <t>08:15 AM</t>
+        </is>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>Manufacturing Production MoMJUN</t>
+        </is>
+      </c>
       <c r="C2100" t="inlineStr"/>
-      <c r="D2100" t="inlineStr"/>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E2100" t="inlineStr"/>
-      <c r="F2100" t="inlineStr"/>
-      <c r="G2100" t="inlineStr"/>
+      <c r="F2100" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2101">
       <c r="A2101" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2101" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production YoYJUN</t>
         </is>
       </c>
       <c r="C2101" t="inlineStr"/>
-      <c r="D2101" t="inlineStr"/>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E2101" t="inlineStr"/>
-      <c r="F2101" t="inlineStr"/>
+      <c r="F2101" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G2101" t="inlineStr">
         <is>
           <t>3</t>
@@ -55027,127 +55031,143 @@
     <row r="2102">
       <c r="A2102" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2102" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2102" t="inlineStr"/>
       <c r="D2102" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>7.07M</t>
         </is>
       </c>
       <c r="E2102" t="inlineStr"/>
       <c r="F2102" t="inlineStr"/>
       <c r="G2102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2103">
       <c r="A2103" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2103" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>EIA Gasoline Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2103" t="inlineStr"/>
       <c r="D2103" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>-2.658M</t>
         </is>
       </c>
       <c r="E2103" t="inlineStr"/>
       <c r="F2103" t="inlineStr"/>
       <c r="G2103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2104">
       <c r="A2104" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2104" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>EIA Crude Oil Imports ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2104" t="inlineStr"/>
       <c r="D2104" t="inlineStr">
         <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2104" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2104" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+          <t>-1.358M</t>
+        </is>
+      </c>
+      <c r="E2104" t="inlineStr"/>
+      <c r="F2104" t="inlineStr"/>
       <c r="G2104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2105">
       <c r="A2105" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2105" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2105" t="inlineStr"/>
-      <c r="D2105" t="inlineStr"/>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>0.464M</t>
+        </is>
+      </c>
       <c r="E2105" t="inlineStr"/>
       <c r="F2105" t="inlineStr"/>
-      <c r="G2105" t="inlineStr"/>
+      <c r="G2105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2106">
       <c r="A2106" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2106" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2106" t="inlineStr"/>
-      <c r="D2106" t="inlineStr"/>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>0.059M</t>
+        </is>
+      </c>
       <c r="E2106" t="inlineStr"/>
       <c r="F2106" t="inlineStr"/>
-      <c r="G2106" t="inlineStr"/>
+      <c r="G2106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2107">
       <c r="A2107" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2107" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2107" t="inlineStr"/>
       <c r="D2107" t="inlineStr">
         <is>
-          <t>4.255%</t>
+          <t>-0.825M</t>
         </is>
       </c>
       <c r="E2107" t="inlineStr"/>
@@ -55161,18 +55181,18 @@
     <row r="2108">
       <c r="A2108" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2108" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2108" t="inlineStr"/>
       <c r="D2108" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>0.278M</t>
         </is>
       </c>
       <c r="E2108" t="inlineStr"/>
@@ -55186,168 +55206,128 @@
     <row r="2109">
       <c r="A2109" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2109" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2109" t="inlineStr"/>
-      <c r="D2109" t="inlineStr"/>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>0.603M</t>
+        </is>
+      </c>
       <c r="E2109" t="inlineStr"/>
       <c r="F2109" t="inlineStr"/>
-      <c r="G2109" t="inlineStr"/>
+      <c r="G2109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2110">
       <c r="A2110" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2110" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2110" t="inlineStr"/>
       <c r="D2110" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2110" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2110" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-0.099M</t>
+        </is>
+      </c>
+      <c r="E2110" t="inlineStr"/>
+      <c r="F2110" t="inlineStr"/>
       <c r="G2110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2111">
       <c r="A2111" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2111" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2111" t="inlineStr"/>
-      <c r="D2111" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="D2111" t="inlineStr"/>
       <c r="E2111" t="inlineStr"/>
-      <c r="F2111" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F2111" t="inlineStr"/>
       <c r="G2111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2112">
       <c r="A2112" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2112" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C2112" t="inlineStr"/>
-      <c r="D2112" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2112" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2112" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D2112" t="inlineStr"/>
+      <c r="E2112" t="inlineStr"/>
+      <c r="F2112" t="inlineStr"/>
       <c r="G2112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2113">
       <c r="A2113" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2113" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C2113" t="inlineStr"/>
-      <c r="D2113" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D2113" t="inlineStr"/>
       <c r="E2113" t="inlineStr"/>
-      <c r="F2113" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="F2113" t="inlineStr"/>
       <c r="G2113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2114">
       <c r="A2114" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2114" t="inlineStr">
-        <is>
-          <t>CPIJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr"/>
       <c r="C2114" t="inlineStr"/>
-      <c r="D2114" t="inlineStr">
-        <is>
-          <t>321.465</t>
-        </is>
-      </c>
+      <c r="D2114" t="inlineStr"/>
       <c r="E2114" t="inlineStr"/>
-      <c r="F2114" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="G2114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2114" t="inlineStr"/>
+      <c r="G2114" t="inlineStr"/>
     </row>
     <row r="2115">
       <c r="A2115" t="inlineStr">
@@ -55357,24 +55337,28 @@
       </c>
       <c r="B2115" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2115" t="inlineStr"/>
       <c r="D2115" t="inlineStr">
         <is>
-          <t>320.580</t>
-        </is>
-      </c>
-      <c r="E2115" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E2115" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2115" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -55386,19 +55370,19 @@
       </c>
       <c r="B2116" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2116" t="inlineStr"/>
       <c r="D2116" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E2116" t="inlineStr"/>
       <c r="F2116" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2116" t="inlineStr">
@@ -55410,37 +55394,41 @@
     <row r="2117">
       <c r="A2117" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2117" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Import Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2117" t="inlineStr"/>
       <c r="D2117" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2117" t="inlineStr"/>
-      <c r="F2117" t="inlineStr"/>
+      <c r="F2117" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2118">
       <c r="A2118" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2118" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2118" t="inlineStr"/>
@@ -55449,29 +55437,33 @@
       <c r="F2118" t="inlineStr"/>
       <c r="G2118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2119">
       <c r="A2119" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2119" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C2119" t="inlineStr"/>
       <c r="D2119" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E2119" t="inlineStr"/>
-      <c r="F2119" t="inlineStr"/>
+      <c r="F2119" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G2119" t="inlineStr">
         <is>
           <t>2</t>
@@ -55481,35 +55473,59 @@
     <row r="2120">
       <c r="A2120" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2120" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJUN</t>
+        </is>
+      </c>
       <c r="C2120" t="inlineStr"/>
-      <c r="D2120" t="inlineStr"/>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E2120" t="inlineStr"/>
-      <c r="F2120" t="inlineStr"/>
-      <c r="G2120" t="inlineStr"/>
+      <c r="F2120" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G2120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2121">
       <c r="A2121" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2121" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2121" t="inlineStr"/>
       <c r="D2121" t="inlineStr">
         <is>
-          <t>6.77%</t>
-        </is>
-      </c>
-      <c r="E2121" t="inlineStr"/>
-      <c r="F2121" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E2121" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2121" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2121" t="inlineStr">
         <is>
           <t>2</t>
@@ -55519,22 +55535,22 @@
     <row r="2122">
       <c r="A2122" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2122" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C2122" t="inlineStr"/>
-      <c r="D2122" t="inlineStr">
-        <is>
-          <t>9.4%</t>
-        </is>
-      </c>
+      <c r="D2122" t="inlineStr"/>
       <c r="E2122" t="inlineStr"/>
-      <c r="F2122" t="inlineStr"/>
+      <c r="F2122" t="inlineStr">
+        <is>
+          <t>1970.0K</t>
+        </is>
+      </c>
       <c r="G2122" t="inlineStr">
         <is>
           <t>3</t>
@@ -55544,22 +55560,26 @@
     <row r="2123">
       <c r="A2123" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2123" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2123" t="inlineStr"/>
       <c r="D2123" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E2123" t="inlineStr"/>
-      <c r="F2123" t="inlineStr"/>
+      <c r="F2123" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="G2123" t="inlineStr">
         <is>
           <t>3</t>
@@ -55569,22 +55589,26 @@
     <row r="2124">
       <c r="A2124" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2124" t="inlineStr"/>
       <c r="D2124" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2124" t="inlineStr"/>
-      <c r="F2124" t="inlineStr"/>
+      <c r="F2124" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2124" t="inlineStr">
         <is>
           <t>3</t>
@@ -55594,20 +55618,16 @@
     <row r="2125">
       <c r="A2125" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr"/>
-      <c r="D2125" t="inlineStr">
-        <is>
-          <t>180.9</t>
-        </is>
-      </c>
+      <c r="D2125" t="inlineStr"/>
       <c r="E2125" t="inlineStr"/>
       <c r="F2125" t="inlineStr"/>
       <c r="G2125" t="inlineStr">
@@ -55624,24 +55644,20 @@
       </c>
       <c r="B2126" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C2126" t="inlineStr"/>
       <c r="D2126" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E2126" t="inlineStr"/>
-      <c r="F2126" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2126" t="inlineStr"/>
       <c r="G2126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -55653,28 +55669,20 @@
       </c>
       <c r="B2127" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C2127" t="inlineStr"/>
       <c r="D2127" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2127" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2127" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E2127" t="inlineStr"/>
+      <c r="F2127" t="inlineStr"/>
       <c r="G2127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -55686,21 +55694,17 @@
       </c>
       <c r="B2128" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C2128" t="inlineStr"/>
       <c r="D2128" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E2128" t="inlineStr"/>
-      <c r="F2128" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F2128" t="inlineStr"/>
       <c r="G2128" t="inlineStr">
         <is>
           <t>3</t>
@@ -55715,21 +55719,17 @@
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C2129" t="inlineStr"/>
       <c r="D2129" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E2129" t="inlineStr"/>
-      <c r="F2129" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
+      <c r="F2129" t="inlineStr"/>
       <c r="G2129" t="inlineStr">
         <is>
           <t>3</t>
@@ -55744,21 +55744,17 @@
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr"/>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr"/>
-      <c r="F2130" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2130" t="inlineStr"/>
       <c r="G2130" t="inlineStr">
         <is>
           <t>3</t>
@@ -55773,19 +55769,19 @@
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr"/>
       <c r="D2131" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2131" t="inlineStr"/>
       <c r="F2131" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2131" t="inlineStr">
@@ -55802,19 +55798,19 @@
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr"/>
       <c r="D2132" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E2132" t="inlineStr"/>
       <c r="F2132" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G2132" t="inlineStr">
@@ -55826,18 +55822,26 @@
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2133" t="inlineStr"/>
-      <c r="D2133" t="inlineStr"/>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E2133" t="inlineStr"/>
-      <c r="F2133" t="inlineStr"/>
+      <c r="F2133" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2133" t="inlineStr">
         <is>
           <t>2</t>
@@ -55847,28 +55851,24 @@
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2134" t="inlineStr"/>
       <c r="D2134" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E2134" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E2134" t="inlineStr"/>
       <c r="F2134" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G2134" t="inlineStr">
@@ -55880,28 +55880,28 @@
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E2135" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2135" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2135" t="inlineStr">
@@ -55913,26 +55913,18 @@
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr"/>
-      <c r="D2136" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="D2136" t="inlineStr"/>
       <c r="E2136" t="inlineStr"/>
-      <c r="F2136" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F2136" t="inlineStr"/>
       <c r="G2136" t="inlineStr">
         <is>
           <t>3</t>
@@ -55942,26 +55934,18 @@
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2137" t="inlineStr"/>
-      <c r="D2137" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2137" t="inlineStr"/>
       <c r="E2137" t="inlineStr"/>
-      <c r="F2137" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2137" t="inlineStr"/>
       <c r="G2137" t="inlineStr">
         <is>
           <t>3</t>
@@ -55971,26 +55955,18 @@
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr"/>
-      <c r="D2138" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D2138" t="inlineStr"/>
       <c r="E2138" t="inlineStr"/>
-      <c r="F2138" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F2138" t="inlineStr"/>
       <c r="G2138" t="inlineStr">
         <is>
           <t>3</t>
@@ -56000,93 +55976,85 @@
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
-      <c r="D2139" t="inlineStr">
-        <is>
-          <t>7.07M</t>
-        </is>
-      </c>
+      <c r="D2139" t="inlineStr"/>
       <c r="E2139" t="inlineStr"/>
       <c r="F2139" t="inlineStr"/>
       <c r="G2139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
-      <c r="D2140" t="inlineStr">
-        <is>
-          <t>-2.658M</t>
-        </is>
-      </c>
+      <c r="D2140" t="inlineStr"/>
       <c r="E2140" t="inlineStr"/>
       <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
       <c r="D2141" t="inlineStr">
         <is>
-          <t>-1.358M</t>
+          <t>$-7.8B</t>
         </is>
       </c>
       <c r="E2141" t="inlineStr"/>
       <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr"/>
       <c r="D2142" t="inlineStr">
         <is>
-          <t>0.464M</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2142" t="inlineStr"/>
@@ -56100,18 +56068,18 @@
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2143" t="inlineStr"/>
       <c r="D2143" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2143" t="inlineStr"/>
@@ -56125,20 +56093,16 @@
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr"/>
-      <c r="D2144" t="inlineStr">
-        <is>
-          <t>-0.825M</t>
-        </is>
-      </c>
+      <c r="D2144" t="inlineStr"/>
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr"/>
       <c r="G2144" t="inlineStr">
@@ -56150,254 +56114,294 @@
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2145" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr"/>
       <c r="C2145" t="inlineStr"/>
-      <c r="D2145" t="inlineStr">
-        <is>
-          <t>0.278M</t>
-        </is>
-      </c>
+      <c r="D2145" t="inlineStr"/>
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
-      <c r="G2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2145" t="inlineStr"/>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr"/>
       <c r="D2146" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2146" t="inlineStr"/>
-      <c r="F2146" t="inlineStr"/>
+      <c r="F2146" t="inlineStr">
+        <is>
+          <t>1.37M</t>
+        </is>
+      </c>
       <c r="G2146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
-      <c r="E2147" t="inlineStr"/>
-      <c r="F2147" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E2147" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G2147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2148" t="inlineStr"/>
-      <c r="D2148" t="inlineStr"/>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>-2%</t>
+        </is>
+      </c>
       <c r="E2148" t="inlineStr"/>
-      <c r="F2148" t="inlineStr"/>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G2148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr"/>
-      <c r="D2149" t="inlineStr"/>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>-9.8%</t>
+        </is>
+      </c>
       <c r="E2149" t="inlineStr"/>
-      <c r="F2149" t="inlineStr"/>
+      <c r="F2149" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G2149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
-      <c r="D2150" t="inlineStr"/>
-      <c r="E2150" t="inlineStr"/>
-      <c r="F2150" t="inlineStr"/>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E2150" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="F2150" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G2150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B2151" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C2151" t="inlineStr"/>
-      <c r="D2151" t="inlineStr"/>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E2151" t="inlineStr"/>
-      <c r="F2151" t="inlineStr"/>
-      <c r="G2151" t="inlineStr"/>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="G2151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJUN</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
       <c r="D2152" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2152" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>58.1</t>
+        </is>
+      </c>
+      <c r="E2152" t="inlineStr"/>
       <c r="F2152" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G2152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>Export Prices MoMJUN</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
       <c r="D2153" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E2153" t="inlineStr"/>
       <c r="F2153" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="G2153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2154">
       <c r="A2154" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>Import Prices MoMJUN</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
       <c r="D2154" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2154" t="inlineStr"/>
       <c r="F2154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G2154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2155">
       <c r="A2155" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2155" t="inlineStr"/>
@@ -56406,1016 +56410,43 @@
       <c r="F2155" t="inlineStr"/>
       <c r="G2155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2156">
       <c r="A2156" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr"/>
-      <c r="D2156" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
+      <c r="D2156" t="inlineStr"/>
       <c r="E2156" t="inlineStr"/>
-      <c r="F2156" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="F2156" t="inlineStr"/>
       <c r="G2156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2157">
       <c r="A2157" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2157" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr"/>
       <c r="C2157" t="inlineStr"/>
-      <c r="D2157" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D2157" t="inlineStr"/>
       <c r="E2157" t="inlineStr"/>
-      <c r="F2157" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2158">
-      <c r="A2158" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2158" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2158" t="inlineStr"/>
-      <c r="D2158" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2158" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2159">
-      <c r="A2159" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2159" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C2159" t="inlineStr"/>
-      <c r="D2159" t="inlineStr"/>
-      <c r="E2159" t="inlineStr"/>
-      <c r="F2159" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G2159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2160">
-      <c r="A2160" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2160" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2160" t="inlineStr"/>
-      <c r="D2160" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2160" t="inlineStr"/>
-      <c r="F2160" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2161">
-      <c r="A2161" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2161" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2161" t="inlineStr"/>
-      <c r="D2161" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2161" t="inlineStr"/>
-      <c r="F2161" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2162">
-      <c r="A2162" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2162" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C2162" t="inlineStr"/>
-      <c r="D2162" t="inlineStr"/>
-      <c r="E2162" t="inlineStr"/>
-      <c r="F2162" t="inlineStr"/>
-      <c r="G2162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2163">
-      <c r="A2163" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2163" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C2163" t="inlineStr"/>
-      <c r="D2163" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E2163" t="inlineStr"/>
-      <c r="F2163" t="inlineStr"/>
-      <c r="G2163" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2164">
-      <c r="A2164" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2164" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2164" t="inlineStr"/>
-      <c r="D2164" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr"/>
-      <c r="G2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2165">
-      <c r="A2165" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2165" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C2165" t="inlineStr"/>
-      <c r="D2165" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E2165" t="inlineStr"/>
-      <c r="F2165" t="inlineStr"/>
-      <c r="G2165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2166">
-      <c r="A2166" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2166" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C2166" t="inlineStr"/>
-      <c r="D2166" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr"/>
-      <c r="G2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2167">
-      <c r="A2167" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2167" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C2167" t="inlineStr"/>
-      <c r="D2167" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E2167" t="inlineStr"/>
-      <c r="F2167" t="inlineStr"/>
-      <c r="G2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2168">
-      <c r="A2168" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2168" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2168" t="inlineStr"/>
-      <c r="D2168" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2168" t="inlineStr"/>
-      <c r="F2168" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2169">
-      <c r="A2169" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2169" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2169" t="inlineStr"/>
-      <c r="D2169" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2169" t="inlineStr"/>
-      <c r="F2169" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2170">
-      <c r="A2170" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2170" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2170" t="inlineStr"/>
-      <c r="D2170" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2170" t="inlineStr"/>
-      <c r="F2170" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2171">
-      <c r="A2171" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2171" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2171" t="inlineStr"/>
-      <c r="D2171" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E2171" t="inlineStr"/>
-      <c r="F2171" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G2171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2172">
-      <c r="A2172" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2172" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2172" t="inlineStr"/>
-      <c r="D2172" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2172" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2172" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2173">
-      <c r="A2173" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2173" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2173" t="inlineStr"/>
-      <c r="D2173" t="inlineStr"/>
-      <c r="E2173" t="inlineStr"/>
-      <c r="F2173" t="inlineStr"/>
-      <c r="G2173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2174">
-      <c r="A2174" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2174" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2174" t="inlineStr"/>
-      <c r="D2174" t="inlineStr"/>
-      <c r="E2174" t="inlineStr"/>
-      <c r="F2174" t="inlineStr"/>
-      <c r="G2174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2175">
-      <c r="A2175" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2175" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2175" t="inlineStr"/>
-      <c r="D2175" t="inlineStr"/>
-      <c r="E2175" t="inlineStr"/>
-      <c r="F2175" t="inlineStr"/>
-      <c r="G2175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2176">
-      <c r="A2176" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2176" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2176" t="inlineStr"/>
-      <c r="D2176" t="inlineStr"/>
-      <c r="E2176" t="inlineStr"/>
-      <c r="F2176" t="inlineStr"/>
-      <c r="G2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2177">
-      <c r="A2177" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2177" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr"/>
-      <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr"/>
-      <c r="G2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2178">
-      <c r="A2178" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2178" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
-      <c r="G2178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2179">
-      <c r="A2179" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2179" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr"/>
-      <c r="G2179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2180">
-      <c r="A2180" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2180" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2180" t="inlineStr"/>
-      <c r="D2180" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E2180" t="inlineStr"/>
-      <c r="F2180" t="inlineStr"/>
-      <c r="G2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2181">
-      <c r="A2181" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2181" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C2181" t="inlineStr"/>
-      <c r="D2181" t="inlineStr"/>
-      <c r="E2181" t="inlineStr"/>
-      <c r="F2181" t="inlineStr"/>
-      <c r="G2181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2182">
-      <c r="A2182" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2182" t="inlineStr"/>
-      <c r="C2182" t="inlineStr"/>
-      <c r="D2182" t="inlineStr"/>
-      <c r="E2182" t="inlineStr"/>
-      <c r="F2182" t="inlineStr"/>
-      <c r="G2182" t="inlineStr"/>
-    </row>
-    <row r="2183">
-      <c r="A2183" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2183" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2183" t="inlineStr"/>
-      <c r="F2183" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G2183" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2184">
-      <c r="A2184" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2184" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C2184" t="inlineStr"/>
-      <c r="D2184" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2184" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F2184" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2184" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2185">
-      <c r="A2185" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2185" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2185" t="inlineStr"/>
-      <c r="D2185" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E2185" t="inlineStr"/>
-      <c r="F2185" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G2185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2186" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2186" t="inlineStr"/>
-      <c r="D2186" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E2186" t="inlineStr"/>
-      <c r="F2186" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2187" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2187" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F2187" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2187" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2188" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2189" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2189" t="inlineStr"/>
-      <c r="D2189" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2190" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2190" t="inlineStr"/>
-      <c r="D2190" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2190" t="inlineStr"/>
-      <c r="F2190" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2191" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2191" t="inlineStr"/>
-      <c r="D2191" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E2191" t="inlineStr"/>
-      <c r="F2191" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2192" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2192" t="inlineStr"/>
-      <c r="D2192" t="inlineStr"/>
-      <c r="E2192" t="inlineStr"/>
-      <c r="F2192" t="inlineStr"/>
-      <c r="G2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2193" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2193" t="inlineStr"/>
-      <c r="D2193" t="inlineStr"/>
-      <c r="E2193" t="inlineStr"/>
-      <c r="F2193" t="inlineStr"/>
-      <c r="G2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2194" t="inlineStr"/>
-      <c r="C2194" t="inlineStr"/>
-      <c r="D2194" t="inlineStr"/>
-      <c r="E2194" t="inlineStr"/>
-      <c r="F2194" t="inlineStr"/>
-      <c r="G2194" t="inlineStr"/>
+      <c r="F2157" t="inlineStr"/>
+      <c r="G2157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2222"/>
+  <dimension ref="A1:G2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55332,10 +55332,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2116">
@@ -55369,10 +55367,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -55402,10 +55398,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -55423,10 +55417,8 @@
       <c r="D2118" t="inlineStr"/>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr"/>
-      <c r="G2118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2118" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2119">
@@ -55456,10 +55448,8 @@
         </is>
       </c>
       <c r="F2119" t="inlineStr"/>
-      <c r="G2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -55481,10 +55471,8 @@
       </c>
       <c r="E2120" t="inlineStr"/>
       <c r="F2120" t="inlineStr"/>
-      <c r="G2120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2121">
@@ -55506,10 +55494,8 @@
       </c>
       <c r="E2121" t="inlineStr"/>
       <c r="F2121" t="inlineStr"/>
-      <c r="G2121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2122">
@@ -55531,10 +55517,8 @@
       </c>
       <c r="E2122" t="inlineStr"/>
       <c r="F2122" t="inlineStr"/>
-      <c r="G2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
@@ -55556,10 +55540,8 @@
       </c>
       <c r="E2123" t="inlineStr"/>
       <c r="F2123" t="inlineStr"/>
-      <c r="G2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -55581,10 +55563,8 @@
       </c>
       <c r="E2124" t="inlineStr"/>
       <c r="F2124" t="inlineStr"/>
-      <c r="G2124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2125">
@@ -55602,10 +55582,8 @@
       <c r="D2125" t="inlineStr"/>
       <c r="E2125" t="inlineStr"/>
       <c r="F2125" t="inlineStr"/>
-      <c r="G2125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2126">
@@ -55623,10 +55601,8 @@
       <c r="D2126" t="inlineStr"/>
       <c r="E2126" t="inlineStr"/>
       <c r="F2126" t="inlineStr"/>
-      <c r="G2126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2127">
@@ -55648,40 +55624,62 @@
       </c>
       <c r="E2127" t="inlineStr"/>
       <c r="F2127" t="inlineStr"/>
-      <c r="G2127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2128" t="inlineStr"/>
+          <t>08:15 AM</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>Manufacturing Production MoMJUN</t>
+        </is>
+      </c>
       <c r="C2128" t="inlineStr"/>
-      <c r="D2128" t="inlineStr"/>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E2128" t="inlineStr"/>
-      <c r="F2128" t="inlineStr"/>
-      <c r="G2128" t="inlineStr"/>
+      <c r="F2128" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production YoYJUN</t>
         </is>
       </c>
       <c r="C2129" t="inlineStr"/>
-      <c r="D2129" t="inlineStr"/>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E2129" t="inlineStr"/>
-      <c r="F2129" t="inlineStr"/>
+      <c r="F2129" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G2129" t="inlineStr">
         <is>
           <t>3</t>
@@ -55691,127 +55689,143 @@
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr"/>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>7.07M</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr"/>
       <c r="F2130" t="inlineStr"/>
       <c r="G2130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>EIA Gasoline Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr"/>
       <c r="D2131" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>-2.658M</t>
         </is>
       </c>
       <c r="E2131" t="inlineStr"/>
       <c r="F2131" t="inlineStr"/>
       <c r="G2131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>EIA Crude Oil Imports ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr"/>
       <c r="D2132" t="inlineStr">
         <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2132" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2132" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+          <t>-1.358M</t>
+        </is>
+      </c>
+      <c r="E2132" t="inlineStr"/>
+      <c r="F2132" t="inlineStr"/>
       <c r="G2132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2133" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2133" t="inlineStr"/>
-      <c r="D2133" t="inlineStr"/>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>0.464M</t>
+        </is>
+      </c>
       <c r="E2133" t="inlineStr"/>
       <c r="F2133" t="inlineStr"/>
-      <c r="G2133" t="inlineStr"/>
+      <c r="G2133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2134" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2134" t="inlineStr"/>
-      <c r="D2134" t="inlineStr"/>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>0.059M</t>
+        </is>
+      </c>
       <c r="E2134" t="inlineStr"/>
       <c r="F2134" t="inlineStr"/>
-      <c r="G2134" t="inlineStr"/>
+      <c r="G2134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>4.255%</t>
+          <t>-0.825M</t>
         </is>
       </c>
       <c r="E2135" t="inlineStr"/>
@@ -55825,18 +55839,18 @@
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr"/>
       <c r="D2136" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>0.278M</t>
         </is>
       </c>
       <c r="E2136" t="inlineStr"/>
@@ -55850,168 +55864,132 @@
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2137" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2137" t="inlineStr"/>
-      <c r="D2137" t="inlineStr"/>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>0.603M</t>
+        </is>
+      </c>
       <c r="E2137" t="inlineStr"/>
       <c r="F2137" t="inlineStr"/>
-      <c r="G2137" t="inlineStr"/>
+      <c r="G2137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr"/>
       <c r="D2138" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2138" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2138" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-0.099M</t>
+        </is>
+      </c>
+      <c r="E2138" t="inlineStr"/>
+      <c r="F2138" t="inlineStr"/>
       <c r="G2138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
       <c r="D2139" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E2139" t="inlineStr"/>
-      <c r="F2139" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F2139" t="inlineStr"/>
       <c r="G2139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
-      <c r="D2140" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2140" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2140" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D2140" t="inlineStr"/>
+      <c r="E2140" t="inlineStr"/>
+      <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
-      <c r="D2141" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D2141" t="inlineStr"/>
       <c r="E2141" t="inlineStr"/>
-      <c r="F2141" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2142" t="inlineStr">
-        <is>
-          <t>CPIJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr"/>
       <c r="C2142" t="inlineStr"/>
-      <c r="D2142" t="inlineStr">
-        <is>
-          <t>321.465</t>
-        </is>
-      </c>
+      <c r="D2142" t="inlineStr"/>
       <c r="E2142" t="inlineStr"/>
-      <c r="F2142" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="G2142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2142" t="inlineStr"/>
+      <c r="G2142" t="inlineStr"/>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
@@ -56021,24 +55999,28 @@
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2143" t="inlineStr"/>
       <c r="D2143" t="inlineStr">
         <is>
-          <t>320.580</t>
-        </is>
-      </c>
-      <c r="E2143" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E2143" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2143" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56050,19 +56032,19 @@
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr"/>
       <c r="D2144" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2144" t="inlineStr">
@@ -56074,68 +56056,84 @@
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Import Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr"/>
       <c r="D2145" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2145" t="inlineStr"/>
-      <c r="F2145" t="inlineStr"/>
+      <c r="F2145" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr"/>
-      <c r="D2146" t="inlineStr"/>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E2146" t="inlineStr"/>
-      <c r="F2146" t="inlineStr"/>
+      <c r="F2146" t="inlineStr">
+        <is>
+          <t>230.0K</t>
+        </is>
+      </c>
       <c r="G2146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E2147" t="inlineStr"/>
-      <c r="F2147" t="inlineStr"/>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G2147" t="inlineStr">
         <is>
           <t>2</t>
@@ -56145,35 +56143,59 @@
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2148" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJUN</t>
+        </is>
+      </c>
       <c r="C2148" t="inlineStr"/>
-      <c r="D2148" t="inlineStr"/>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E2148" t="inlineStr"/>
-      <c r="F2148" t="inlineStr"/>
-      <c r="G2148" t="inlineStr"/>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G2148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2149">
       <c r="A2149" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr"/>
       <c r="D2149" t="inlineStr">
         <is>
-          <t>6.77%</t>
-        </is>
-      </c>
-      <c r="E2149" t="inlineStr"/>
-      <c r="F2149" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E2149" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2149" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2149" t="inlineStr">
         <is>
           <t>2</t>
@@ -56183,22 +56205,26 @@
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>1965K</t>
         </is>
       </c>
       <c r="E2150" t="inlineStr"/>
-      <c r="F2150" t="inlineStr"/>
+      <c r="F2150" t="inlineStr">
+        <is>
+          <t>1970.0K</t>
+        </is>
+      </c>
       <c r="G2150" t="inlineStr">
         <is>
           <t>3</t>
@@ -56208,22 +56234,26 @@
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr"/>
       <c r="D2151" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E2151" t="inlineStr"/>
-      <c r="F2151" t="inlineStr"/>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="G2151" t="inlineStr">
         <is>
           <t>3</t>
@@ -56233,22 +56263,26 @@
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
       <c r="D2152" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2152" t="inlineStr"/>
-      <c r="F2152" t="inlineStr"/>
+      <c r="F2152" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2152" t="inlineStr">
         <is>
           <t>3</t>
@@ -56258,22 +56292,26 @@
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
       <c r="D2153" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>235.5K</t>
         </is>
       </c>
       <c r="E2153" t="inlineStr"/>
-      <c r="F2153" t="inlineStr"/>
+      <c r="F2153" t="inlineStr">
+        <is>
+          <t>237.0K</t>
+        </is>
+      </c>
       <c r="G2153" t="inlineStr">
         <is>
           <t>3</t>
@@ -56288,24 +56326,20 @@
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
       <c r="D2154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E2154" t="inlineStr"/>
-      <c r="F2154" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2154" t="inlineStr"/>
       <c r="G2154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56317,28 +56351,20 @@
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C2155" t="inlineStr"/>
       <c r="D2155" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2155" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2155" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E2155" t="inlineStr"/>
+      <c r="F2155" t="inlineStr"/>
       <c r="G2155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56350,21 +56376,17 @@
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr"/>
       <c r="D2156" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E2156" t="inlineStr"/>
-      <c r="F2156" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F2156" t="inlineStr"/>
       <c r="G2156" t="inlineStr">
         <is>
           <t>3</t>
@@ -56379,21 +56401,17 @@
       </c>
       <c r="B2157" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C2157" t="inlineStr"/>
       <c r="D2157" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E2157" t="inlineStr"/>
-      <c r="F2157" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
+      <c r="F2157" t="inlineStr"/>
       <c r="G2157" t="inlineStr">
         <is>
           <t>3</t>
@@ -56408,21 +56426,17 @@
       </c>
       <c r="B2158" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C2158" t="inlineStr"/>
       <c r="D2158" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E2158" t="inlineStr"/>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2158" t="inlineStr"/>
       <c r="G2158" t="inlineStr">
         <is>
           <t>3</t>
@@ -56437,19 +56451,19 @@
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2159" t="inlineStr"/>
       <c r="D2159" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2159" t="inlineStr"/>
       <c r="F2159" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2159" t="inlineStr">
@@ -56466,19 +56480,19 @@
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C2160" t="inlineStr"/>
       <c r="D2160" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E2160" t="inlineStr"/>
       <c r="F2160" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G2160" t="inlineStr">
@@ -56490,18 +56504,26 @@
     <row r="2161">
       <c r="A2161" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2161" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2161" t="inlineStr"/>
-      <c r="D2161" t="inlineStr"/>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E2161" t="inlineStr"/>
-      <c r="F2161" t="inlineStr"/>
+      <c r="F2161" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2161" t="inlineStr">
         <is>
           <t>2</t>
@@ -56511,28 +56533,24 @@
     <row r="2162">
       <c r="A2162" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr"/>
       <c r="D2162" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E2162" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E2162" t="inlineStr"/>
       <c r="F2162" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G2162" t="inlineStr">
@@ -56544,28 +56562,28 @@
     <row r="2163">
       <c r="A2163" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr"/>
       <c r="D2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2163" t="inlineStr">
@@ -56577,26 +56595,22 @@
     <row r="2164">
       <c r="A2164" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2164" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2164" t="inlineStr"/>
       <c r="D2164" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>53Bcf</t>
         </is>
       </c>
       <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F2164" t="inlineStr"/>
       <c r="G2164" t="inlineStr">
         <is>
           <t>3</t>
@@ -56606,26 +56620,22 @@
     <row r="2165">
       <c r="A2165" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2165" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2165" t="inlineStr"/>
       <c r="D2165" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E2165" t="inlineStr"/>
-      <c r="F2165" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2165" t="inlineStr"/>
       <c r="G2165" t="inlineStr">
         <is>
           <t>3</t>
@@ -56635,26 +56645,22 @@
     <row r="2166">
       <c r="A2166" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr"/>
       <c r="D2166" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.275%</t>
         </is>
       </c>
       <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F2166" t="inlineStr"/>
       <c r="G2166" t="inlineStr">
         <is>
           <t>3</t>
@@ -56664,93 +56670,89 @@
     <row r="2167">
       <c r="A2167" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr"/>
       <c r="D2167" t="inlineStr">
         <is>
-          <t>7.07M</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="E2167" t="inlineStr"/>
       <c r="F2167" t="inlineStr"/>
       <c r="G2167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2168" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2168" t="inlineStr"/>
-      <c r="D2168" t="inlineStr">
-        <is>
-          <t>-2.658M</t>
-        </is>
-      </c>
+      <c r="D2168" t="inlineStr"/>
       <c r="E2168" t="inlineStr"/>
       <c r="F2168" t="inlineStr"/>
       <c r="G2168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2169" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C2169" t="inlineStr"/>
       <c r="D2169" t="inlineStr">
         <is>
-          <t>-1.358M</t>
+          <t>$-7.8B</t>
         </is>
       </c>
       <c r="E2169" t="inlineStr"/>
       <c r="F2169" t="inlineStr"/>
       <c r="G2169" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2170">
       <c r="A2170" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2170" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2170" t="inlineStr"/>
       <c r="D2170" t="inlineStr">
         <is>
-          <t>0.464M</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2170" t="inlineStr"/>
@@ -56764,18 +56766,18 @@
     <row r="2171">
       <c r="A2171" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2171" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2171" t="inlineStr"/>
       <c r="D2171" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2171" t="inlineStr"/>
@@ -56789,20 +56791,16 @@
     <row r="2172">
       <c r="A2172" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2172" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2172" t="inlineStr"/>
-      <c r="D2172" t="inlineStr">
-        <is>
-          <t>-0.825M</t>
-        </is>
-      </c>
+      <c r="D2172" t="inlineStr"/>
       <c r="E2172" t="inlineStr"/>
       <c r="F2172" t="inlineStr"/>
       <c r="G2172" t="inlineStr">
@@ -56814,1300 +56812,339 @@
     <row r="2173">
       <c r="A2173" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2173" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr"/>
       <c r="C2173" t="inlineStr"/>
-      <c r="D2173" t="inlineStr">
-        <is>
-          <t>0.278M</t>
-        </is>
-      </c>
+      <c r="D2173" t="inlineStr"/>
       <c r="E2173" t="inlineStr"/>
       <c r="F2173" t="inlineStr"/>
-      <c r="G2173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2173" t="inlineStr"/>
     </row>
     <row r="2174">
       <c r="A2174" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2174" t="inlineStr"/>
       <c r="D2174" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2174" t="inlineStr"/>
-      <c r="F2174" t="inlineStr"/>
+      <c r="F2174" t="inlineStr">
+        <is>
+          <t>1.37M</t>
+        </is>
+      </c>
       <c r="G2174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2175" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2175" t="inlineStr"/>
       <c r="D2175" t="inlineStr">
         <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
-      <c r="E2175" t="inlineStr"/>
-      <c r="F2175" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E2175" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
+      <c r="F2175" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G2175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2176" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2176" t="inlineStr"/>
       <c r="D2176" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2176" t="inlineStr"/>
-      <c r="F2176" t="inlineStr"/>
+      <c r="F2176" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G2176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2177" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr"/>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>-9.8%</t>
+        </is>
+      </c>
       <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr"/>
+      <c r="F2177" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G2177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2178" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr"/>
-      <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E2178" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="F2178" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G2178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B2179" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr"/>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr"/>
-      <c r="G2179" t="inlineStr"/>
+      <c r="F2179" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="G2179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2180">
       <c r="A2180" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJUN</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2180" t="inlineStr"/>
       <c r="D2180" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2180" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>58.1</t>
+        </is>
+      </c>
+      <c r="E2180" t="inlineStr"/>
       <c r="F2180" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G2180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2181">
       <c r="A2181" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2181" t="inlineStr">
         <is>
-          <t>Export Prices MoMJUN</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2181" t="inlineStr"/>
       <c r="D2181" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E2181" t="inlineStr"/>
       <c r="F2181" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="G2181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2182">
       <c r="A2182" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
-          <t>Import Prices MoMJUN</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2182" t="inlineStr"/>
       <c r="D2182" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2182" t="inlineStr"/>
       <c r="F2182" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G2182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2183" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
+      <c r="D2183" t="inlineStr"/>
       <c r="E2183" t="inlineStr"/>
-      <c r="F2183" t="inlineStr">
-        <is>
-          <t>230.0K</t>
-        </is>
-      </c>
+      <c r="F2183" t="inlineStr"/>
       <c r="G2183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2184" t="inlineStr"/>
-      <c r="D2184" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
+      <c r="D2184" t="inlineStr"/>
       <c r="E2184" t="inlineStr"/>
-      <c r="F2184" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="F2184" t="inlineStr"/>
       <c r="G2184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2185" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr"/>
       <c r="C2185" t="inlineStr"/>
-      <c r="D2185" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D2185" t="inlineStr"/>
       <c r="E2185" t="inlineStr"/>
-      <c r="F2185" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2186" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2186" t="inlineStr"/>
-      <c r="D2186" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2186" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2186" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2187" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>1965K</t>
-        </is>
-      </c>
-      <c r="E2187" t="inlineStr"/>
-      <c r="F2187" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2188" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2189" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2189" t="inlineStr"/>
-      <c r="D2189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2190" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C2190" t="inlineStr"/>
-      <c r="D2190" t="inlineStr">
-        <is>
-          <t>235.5K</t>
-        </is>
-      </c>
-      <c r="E2190" t="inlineStr"/>
-      <c r="F2190" t="inlineStr">
-        <is>
-          <t>237.0K</t>
-        </is>
-      </c>
-      <c r="G2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2191" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C2191" t="inlineStr"/>
-      <c r="D2191" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E2191" t="inlineStr"/>
-      <c r="F2191" t="inlineStr"/>
-      <c r="G2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2192" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2192" t="inlineStr"/>
-      <c r="D2192" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E2192" t="inlineStr"/>
-      <c r="F2192" t="inlineStr"/>
-      <c r="G2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2193" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C2193" t="inlineStr"/>
-      <c r="D2193" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E2193" t="inlineStr"/>
-      <c r="F2193" t="inlineStr"/>
-      <c r="G2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2194" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C2194" t="inlineStr"/>
-      <c r="D2194" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E2194" t="inlineStr"/>
-      <c r="F2194" t="inlineStr"/>
-      <c r="G2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2195">
-      <c r="A2195" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2195" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C2195" t="inlineStr"/>
-      <c r="D2195" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E2195" t="inlineStr"/>
-      <c r="F2195" t="inlineStr"/>
-      <c r="G2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2196">
-      <c r="A2196" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2196" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2196" t="inlineStr"/>
-      <c r="D2196" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2196" t="inlineStr"/>
-      <c r="F2196" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2197">
-      <c r="A2197" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2197" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2197" t="inlineStr"/>
-      <c r="D2197" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2197" t="inlineStr"/>
-      <c r="F2197" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2198">
-      <c r="A2198" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2198" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2198" t="inlineStr"/>
-      <c r="D2198" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2198" t="inlineStr"/>
-      <c r="F2198" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2199">
-      <c r="A2199" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2199" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2199" t="inlineStr"/>
-      <c r="D2199" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E2199" t="inlineStr"/>
-      <c r="F2199" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G2199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2200">
-      <c r="A2200" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2200" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2200" t="inlineStr"/>
-      <c r="D2200" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2200" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2200" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2201">
-      <c r="A2201" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2201" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2201" t="inlineStr"/>
-      <c r="D2201" t="inlineStr">
-        <is>
-          <t>53Bcf</t>
-        </is>
-      </c>
-      <c r="E2201" t="inlineStr"/>
-      <c r="F2201" t="inlineStr"/>
-      <c r="G2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2202">
-      <c r="A2202" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2202" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2202" t="inlineStr"/>
-      <c r="D2202" t="inlineStr"/>
-      <c r="E2202" t="inlineStr"/>
-      <c r="F2202" t="inlineStr"/>
-      <c r="G2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2203">
-      <c r="A2203" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2203" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2203" t="inlineStr"/>
-      <c r="D2203" t="inlineStr"/>
-      <c r="E2203" t="inlineStr"/>
-      <c r="F2203" t="inlineStr"/>
-      <c r="G2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2204">
-      <c r="A2204" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2204" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2204" t="inlineStr"/>
-      <c r="D2204" t="inlineStr"/>
-      <c r="E2204" t="inlineStr"/>
-      <c r="F2204" t="inlineStr"/>
-      <c r="G2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2205">
-      <c r="A2205" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2205" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2205" t="inlineStr"/>
-      <c r="D2205" t="inlineStr"/>
-      <c r="E2205" t="inlineStr"/>
-      <c r="F2205" t="inlineStr"/>
-      <c r="G2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2206">
-      <c r="A2206" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2206" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2206" t="inlineStr"/>
-      <c r="D2206" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E2206" t="inlineStr"/>
-      <c r="F2206" t="inlineStr"/>
-      <c r="G2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2207">
-      <c r="A2207" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2207" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C2207" t="inlineStr"/>
-      <c r="D2207" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E2207" t="inlineStr"/>
-      <c r="F2207" t="inlineStr"/>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2208">
-      <c r="A2208" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2208" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2208" t="inlineStr"/>
-      <c r="D2208" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E2208" t="inlineStr"/>
-      <c r="F2208" t="inlineStr"/>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2209">
-      <c r="A2209" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2209" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C2209" t="inlineStr"/>
-      <c r="D2209" t="inlineStr"/>
-      <c r="E2209" t="inlineStr"/>
-      <c r="F2209" t="inlineStr"/>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2210">
-      <c r="A2210" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2210" t="inlineStr"/>
-      <c r="C2210" t="inlineStr"/>
-      <c r="D2210" t="inlineStr"/>
-      <c r="E2210" t="inlineStr"/>
-      <c r="F2210" t="inlineStr"/>
-      <c r="G2210" t="inlineStr"/>
-    </row>
-    <row r="2211">
-      <c r="A2211" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2211" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2211" t="inlineStr"/>
-      <c r="D2211" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2211" t="inlineStr"/>
-      <c r="F2211" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2212">
-      <c r="A2212" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2212" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C2212" t="inlineStr"/>
-      <c r="D2212" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2212" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F2212" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2213">
-      <c r="A2213" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2213" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2213" t="inlineStr"/>
-      <c r="D2213" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E2213" t="inlineStr"/>
-      <c r="F2213" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2214">
-      <c r="A2214" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2214" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2214" t="inlineStr"/>
-      <c r="D2214" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E2214" t="inlineStr"/>
-      <c r="F2214" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2215">
-      <c r="A2215" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2215" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2215" t="inlineStr"/>
-      <c r="D2215" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2215" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F2215" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2216">
-      <c r="A2216" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2216" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2216" t="inlineStr"/>
-      <c r="D2216" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2216" t="inlineStr"/>
-      <c r="F2216" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2217">
-      <c r="A2217" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2217" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2217" t="inlineStr"/>
-      <c r="D2217" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2217" t="inlineStr"/>
-      <c r="F2217" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2218">
-      <c r="A2218" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2218" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2218" t="inlineStr"/>
-      <c r="D2218" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2218" t="inlineStr"/>
-      <c r="F2218" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2219">
-      <c r="A2219" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2219" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2219" t="inlineStr"/>
-      <c r="D2219" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E2219" t="inlineStr"/>
-      <c r="F2219" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2220">
-      <c r="A2220" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2220" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2220" t="inlineStr"/>
-      <c r="D2220" t="inlineStr"/>
-      <c r="E2220" t="inlineStr"/>
-      <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2221">
-      <c r="A2221" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2221" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2221" t="inlineStr"/>
-      <c r="D2221" t="inlineStr"/>
-      <c r="E2221" t="inlineStr"/>
-      <c r="F2221" t="inlineStr"/>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2222">
-      <c r="A2222" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2222" t="inlineStr"/>
-      <c r="C2222" t="inlineStr"/>
-      <c r="D2222" t="inlineStr"/>
-      <c r="E2222" t="inlineStr"/>
-      <c r="F2222" t="inlineStr"/>
-      <c r="G2222" t="inlineStr"/>
+      <c r="F2185" t="inlineStr"/>
+      <c r="G2185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2222"/>
+  <dimension ref="A1:G2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55332,10 +55332,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2116">
@@ -55369,10 +55367,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -55402,10 +55398,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -55423,10 +55417,8 @@
       <c r="D2118" t="inlineStr"/>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr"/>
-      <c r="G2118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2118" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2119">
@@ -55456,10 +55448,8 @@
         </is>
       </c>
       <c r="F2119" t="inlineStr"/>
-      <c r="G2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -55485,10 +55475,8 @@
       </c>
       <c r="E2120" t="inlineStr"/>
       <c r="F2120" t="inlineStr"/>
-      <c r="G2120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2121">
@@ -55514,10 +55502,8 @@
       </c>
       <c r="E2121" t="inlineStr"/>
       <c r="F2121" t="inlineStr"/>
-      <c r="G2121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2122">
@@ -55543,10 +55529,8 @@
       </c>
       <c r="E2122" t="inlineStr"/>
       <c r="F2122" t="inlineStr"/>
-      <c r="G2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
@@ -55572,10 +55556,8 @@
       </c>
       <c r="E2123" t="inlineStr"/>
       <c r="F2123" t="inlineStr"/>
-      <c r="G2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -55601,10 +55583,8 @@
       </c>
       <c r="E2124" t="inlineStr"/>
       <c r="F2124" t="inlineStr"/>
-      <c r="G2124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2125">
@@ -55622,10 +55602,8 @@
       <c r="D2125" t="inlineStr"/>
       <c r="E2125" t="inlineStr"/>
       <c r="F2125" t="inlineStr"/>
-      <c r="G2125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2126">
@@ -55643,10 +55621,8 @@
       <c r="D2126" t="inlineStr"/>
       <c r="E2126" t="inlineStr"/>
       <c r="F2126" t="inlineStr"/>
-      <c r="G2126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2127">
@@ -55668,40 +55644,62 @@
       </c>
       <c r="E2127" t="inlineStr"/>
       <c r="F2127" t="inlineStr"/>
-      <c r="G2127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2128" t="inlineStr"/>
+          <t>08:15 AM</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>Manufacturing Production MoMJUN</t>
+        </is>
+      </c>
       <c r="C2128" t="inlineStr"/>
-      <c r="D2128" t="inlineStr"/>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E2128" t="inlineStr"/>
-      <c r="F2128" t="inlineStr"/>
-      <c r="G2128" t="inlineStr"/>
+      <c r="F2128" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production YoYJUN</t>
         </is>
       </c>
       <c r="C2129" t="inlineStr"/>
-      <c r="D2129" t="inlineStr"/>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E2129" t="inlineStr"/>
-      <c r="F2129" t="inlineStr"/>
+      <c r="F2129" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G2129" t="inlineStr">
         <is>
           <t>3</t>
@@ -55711,127 +55709,143 @@
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr"/>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>7.07M</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr"/>
       <c r="F2130" t="inlineStr"/>
       <c r="G2130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>EIA Gasoline Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr"/>
       <c r="D2131" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>-2.658M</t>
         </is>
       </c>
       <c r="E2131" t="inlineStr"/>
       <c r="F2131" t="inlineStr"/>
       <c r="G2131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>EIA Crude Oil Imports ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr"/>
       <c r="D2132" t="inlineStr">
         <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2132" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2132" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+          <t>-1.358M</t>
+        </is>
+      </c>
+      <c r="E2132" t="inlineStr"/>
+      <c r="F2132" t="inlineStr"/>
       <c r="G2132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2133" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2133" t="inlineStr"/>
-      <c r="D2133" t="inlineStr"/>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>0.464M</t>
+        </is>
+      </c>
       <c r="E2133" t="inlineStr"/>
       <c r="F2133" t="inlineStr"/>
-      <c r="G2133" t="inlineStr"/>
+      <c r="G2133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2134" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2134" t="inlineStr"/>
-      <c r="D2134" t="inlineStr"/>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>0.059M</t>
+        </is>
+      </c>
       <c r="E2134" t="inlineStr"/>
       <c r="F2134" t="inlineStr"/>
-      <c r="G2134" t="inlineStr"/>
+      <c r="G2134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>4.255%</t>
+          <t>-0.825M</t>
         </is>
       </c>
       <c r="E2135" t="inlineStr"/>
@@ -55845,18 +55859,18 @@
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr"/>
       <c r="D2136" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>0.278M</t>
         </is>
       </c>
       <c r="E2136" t="inlineStr"/>
@@ -55870,168 +55884,132 @@
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2137" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2137" t="inlineStr"/>
-      <c r="D2137" t="inlineStr"/>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>0.603M</t>
+        </is>
+      </c>
       <c r="E2137" t="inlineStr"/>
       <c r="F2137" t="inlineStr"/>
-      <c r="G2137" t="inlineStr"/>
+      <c r="G2137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr"/>
       <c r="D2138" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2138" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2138" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-0.099M</t>
+        </is>
+      </c>
+      <c r="E2138" t="inlineStr"/>
+      <c r="F2138" t="inlineStr"/>
       <c r="G2138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
       <c r="D2139" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E2139" t="inlineStr"/>
-      <c r="F2139" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F2139" t="inlineStr"/>
       <c r="G2139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
-      <c r="D2140" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2140" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2140" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D2140" t="inlineStr"/>
+      <c r="E2140" t="inlineStr"/>
+      <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
-      <c r="D2141" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D2141" t="inlineStr"/>
       <c r="E2141" t="inlineStr"/>
-      <c r="F2141" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2142" t="inlineStr">
-        <is>
-          <t>CPIJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr"/>
       <c r="C2142" t="inlineStr"/>
-      <c r="D2142" t="inlineStr">
-        <is>
-          <t>321.465</t>
-        </is>
-      </c>
+      <c r="D2142" t="inlineStr"/>
       <c r="E2142" t="inlineStr"/>
-      <c r="F2142" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="G2142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2142" t="inlineStr"/>
+      <c r="G2142" t="inlineStr"/>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
@@ -56041,24 +56019,28 @@
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2143" t="inlineStr"/>
       <c r="D2143" t="inlineStr">
         <is>
-          <t>320.580</t>
-        </is>
-      </c>
-      <c r="E2143" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E2143" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2143" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56070,19 +56052,19 @@
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr"/>
       <c r="D2144" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2144" t="inlineStr">
@@ -56094,68 +56076,84 @@
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Import Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr"/>
       <c r="D2145" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2145" t="inlineStr"/>
-      <c r="F2145" t="inlineStr"/>
+      <c r="F2145" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr"/>
-      <c r="D2146" t="inlineStr"/>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E2146" t="inlineStr"/>
-      <c r="F2146" t="inlineStr"/>
+      <c r="F2146" t="inlineStr">
+        <is>
+          <t>230.0K</t>
+        </is>
+      </c>
       <c r="G2146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E2147" t="inlineStr"/>
-      <c r="F2147" t="inlineStr"/>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G2147" t="inlineStr">
         <is>
           <t>2</t>
@@ -56165,35 +56163,59 @@
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2148" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJUN</t>
+        </is>
+      </c>
       <c r="C2148" t="inlineStr"/>
-      <c r="D2148" t="inlineStr"/>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E2148" t="inlineStr"/>
-      <c r="F2148" t="inlineStr"/>
-      <c r="G2148" t="inlineStr"/>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G2148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2149">
       <c r="A2149" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr"/>
       <c r="D2149" t="inlineStr">
         <is>
-          <t>6.77%</t>
-        </is>
-      </c>
-      <c r="E2149" t="inlineStr"/>
-      <c r="F2149" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E2149" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2149" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2149" t="inlineStr">
         <is>
           <t>2</t>
@@ -56203,22 +56225,26 @@
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>1965K</t>
         </is>
       </c>
       <c r="E2150" t="inlineStr"/>
-      <c r="F2150" t="inlineStr"/>
+      <c r="F2150" t="inlineStr">
+        <is>
+          <t>1970.0K</t>
+        </is>
+      </c>
       <c r="G2150" t="inlineStr">
         <is>
           <t>3</t>
@@ -56228,22 +56254,26 @@
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr"/>
       <c r="D2151" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E2151" t="inlineStr"/>
-      <c r="F2151" t="inlineStr"/>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="G2151" t="inlineStr">
         <is>
           <t>3</t>
@@ -56253,22 +56283,26 @@
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
       <c r="D2152" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2152" t="inlineStr"/>
-      <c r="F2152" t="inlineStr"/>
+      <c r="F2152" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2152" t="inlineStr">
         <is>
           <t>3</t>
@@ -56278,22 +56312,26 @@
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
       <c r="D2153" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>235.5K</t>
         </is>
       </c>
       <c r="E2153" t="inlineStr"/>
-      <c r="F2153" t="inlineStr"/>
+      <c r="F2153" t="inlineStr">
+        <is>
+          <t>237.0K</t>
+        </is>
+      </c>
       <c r="G2153" t="inlineStr">
         <is>
           <t>3</t>
@@ -56308,24 +56346,20 @@
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
       <c r="D2154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E2154" t="inlineStr"/>
-      <c r="F2154" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2154" t="inlineStr"/>
       <c r="G2154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56337,28 +56371,20 @@
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C2155" t="inlineStr"/>
       <c r="D2155" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2155" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2155" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E2155" t="inlineStr"/>
+      <c r="F2155" t="inlineStr"/>
       <c r="G2155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56370,21 +56396,17 @@
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr"/>
       <c r="D2156" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E2156" t="inlineStr"/>
-      <c r="F2156" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F2156" t="inlineStr"/>
       <c r="G2156" t="inlineStr">
         <is>
           <t>3</t>
@@ -56399,21 +56421,17 @@
       </c>
       <c r="B2157" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C2157" t="inlineStr"/>
       <c r="D2157" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E2157" t="inlineStr"/>
-      <c r="F2157" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
+      <c r="F2157" t="inlineStr"/>
       <c r="G2157" t="inlineStr">
         <is>
           <t>3</t>
@@ -56428,21 +56446,17 @@
       </c>
       <c r="B2158" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C2158" t="inlineStr"/>
       <c r="D2158" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E2158" t="inlineStr"/>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2158" t="inlineStr"/>
       <c r="G2158" t="inlineStr">
         <is>
           <t>3</t>
@@ -56457,19 +56471,19 @@
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2159" t="inlineStr"/>
       <c r="D2159" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2159" t="inlineStr"/>
       <c r="F2159" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2159" t="inlineStr">
@@ -56486,19 +56500,19 @@
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C2160" t="inlineStr"/>
       <c r="D2160" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E2160" t="inlineStr"/>
       <c r="F2160" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G2160" t="inlineStr">
@@ -56510,18 +56524,26 @@
     <row r="2161">
       <c r="A2161" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2161" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2161" t="inlineStr"/>
-      <c r="D2161" t="inlineStr"/>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E2161" t="inlineStr"/>
-      <c r="F2161" t="inlineStr"/>
+      <c r="F2161" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2161" t="inlineStr">
         <is>
           <t>2</t>
@@ -56531,28 +56553,24 @@
     <row r="2162">
       <c r="A2162" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr"/>
       <c r="D2162" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E2162" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E2162" t="inlineStr"/>
       <c r="F2162" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G2162" t="inlineStr">
@@ -56564,28 +56582,28 @@
     <row r="2163">
       <c r="A2163" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr"/>
       <c r="D2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2163" t="inlineStr">
@@ -56597,26 +56615,22 @@
     <row r="2164">
       <c r="A2164" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2164" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2164" t="inlineStr"/>
       <c r="D2164" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>53Bcf</t>
         </is>
       </c>
       <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F2164" t="inlineStr"/>
       <c r="G2164" t="inlineStr">
         <is>
           <t>3</t>
@@ -56626,26 +56640,22 @@
     <row r="2165">
       <c r="A2165" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2165" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2165" t="inlineStr"/>
       <c r="D2165" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E2165" t="inlineStr"/>
-      <c r="F2165" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2165" t="inlineStr"/>
       <c r="G2165" t="inlineStr">
         <is>
           <t>3</t>
@@ -56655,26 +56665,22 @@
     <row r="2166">
       <c r="A2166" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr"/>
       <c r="D2166" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.275%</t>
         </is>
       </c>
       <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F2166" t="inlineStr"/>
       <c r="G2166" t="inlineStr">
         <is>
           <t>3</t>
@@ -56684,93 +56690,93 @@
     <row r="2167">
       <c r="A2167" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr"/>
       <c r="D2167" t="inlineStr">
         <is>
-          <t>7.07M</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="E2167" t="inlineStr"/>
       <c r="F2167" t="inlineStr"/>
       <c r="G2167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2168" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2168" t="inlineStr"/>
       <c r="D2168" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>6.72%</t>
         </is>
       </c>
       <c r="E2168" t="inlineStr"/>
       <c r="F2168" t="inlineStr"/>
       <c r="G2168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2169" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C2169" t="inlineStr"/>
       <c r="D2169" t="inlineStr">
         <is>
-          <t>-1.358M</t>
+          <t>$-7.8B</t>
         </is>
       </c>
       <c r="E2169" t="inlineStr"/>
       <c r="F2169" t="inlineStr"/>
       <c r="G2169" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2170">
       <c r="A2170" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2170" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2170" t="inlineStr"/>
       <c r="D2170" t="inlineStr">
         <is>
-          <t>0.464M</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2170" t="inlineStr"/>
@@ -56784,18 +56790,18 @@
     <row r="2171">
       <c r="A2171" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2171" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2171" t="inlineStr"/>
       <c r="D2171" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2171" t="inlineStr"/>
@@ -56809,20 +56815,16 @@
     <row r="2172">
       <c r="A2172" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2172" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2172" t="inlineStr"/>
-      <c r="D2172" t="inlineStr">
-        <is>
-          <t>-0.825M</t>
-        </is>
-      </c>
+      <c r="D2172" t="inlineStr"/>
       <c r="E2172" t="inlineStr"/>
       <c r="F2172" t="inlineStr"/>
       <c r="G2172" t="inlineStr">
@@ -56834,1316 +56836,339 @@
     <row r="2173">
       <c r="A2173" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2173" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr"/>
       <c r="C2173" t="inlineStr"/>
-      <c r="D2173" t="inlineStr">
-        <is>
-          <t>0.278M</t>
-        </is>
-      </c>
+      <c r="D2173" t="inlineStr"/>
       <c r="E2173" t="inlineStr"/>
       <c r="F2173" t="inlineStr"/>
-      <c r="G2173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2173" t="inlineStr"/>
     </row>
     <row r="2174">
       <c r="A2174" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2174" t="inlineStr"/>
       <c r="D2174" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2174" t="inlineStr"/>
-      <c r="F2174" t="inlineStr"/>
+      <c r="F2174" t="inlineStr">
+        <is>
+          <t>1.37M</t>
+        </is>
+      </c>
       <c r="G2174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2175" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2175" t="inlineStr"/>
       <c r="D2175" t="inlineStr">
         <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
-      <c r="E2175" t="inlineStr"/>
-      <c r="F2175" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E2175" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
+      <c r="F2175" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G2175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2176" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2176" t="inlineStr"/>
       <c r="D2176" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2176" t="inlineStr"/>
-      <c r="F2176" t="inlineStr"/>
+      <c r="F2176" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G2176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2177" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr"/>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>-9.8%</t>
+        </is>
+      </c>
       <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr"/>
+      <c r="F2177" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G2177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2178" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr"/>
-      <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E2178" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="F2178" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G2178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B2179" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr"/>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr"/>
-      <c r="G2179" t="inlineStr"/>
+      <c r="F2179" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="G2179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2180">
       <c r="A2180" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJUN</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2180" t="inlineStr"/>
       <c r="D2180" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2180" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>58.1</t>
+        </is>
+      </c>
+      <c r="E2180" t="inlineStr"/>
       <c r="F2180" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G2180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2181">
       <c r="A2181" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2181" t="inlineStr">
         <is>
-          <t>Export Prices MoMJUN</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2181" t="inlineStr"/>
       <c r="D2181" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E2181" t="inlineStr"/>
       <c r="F2181" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="G2181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2182">
       <c r="A2182" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
-          <t>Import Prices MoMJUN</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2182" t="inlineStr"/>
       <c r="D2182" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2182" t="inlineStr"/>
       <c r="F2182" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G2182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2183" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
+      <c r="D2183" t="inlineStr"/>
       <c r="E2183" t="inlineStr"/>
-      <c r="F2183" t="inlineStr">
-        <is>
-          <t>230.0K</t>
-        </is>
-      </c>
+      <c r="F2183" t="inlineStr"/>
       <c r="G2183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2184" t="inlineStr"/>
-      <c r="D2184" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
+      <c r="D2184" t="inlineStr"/>
       <c r="E2184" t="inlineStr"/>
-      <c r="F2184" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="F2184" t="inlineStr"/>
       <c r="G2184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2185" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr"/>
       <c r="C2185" t="inlineStr"/>
-      <c r="D2185" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D2185" t="inlineStr"/>
       <c r="E2185" t="inlineStr"/>
-      <c r="F2185" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2186" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2186" t="inlineStr"/>
-      <c r="D2186" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2186" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2186" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2187" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>1965K</t>
-        </is>
-      </c>
-      <c r="E2187" t="inlineStr"/>
-      <c r="F2187" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2188" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2189" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2189" t="inlineStr"/>
-      <c r="D2189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2190" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C2190" t="inlineStr"/>
-      <c r="D2190" t="inlineStr">
-        <is>
-          <t>235.5K</t>
-        </is>
-      </c>
-      <c r="E2190" t="inlineStr"/>
-      <c r="F2190" t="inlineStr">
-        <is>
-          <t>237.0K</t>
-        </is>
-      </c>
-      <c r="G2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2191" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C2191" t="inlineStr"/>
-      <c r="D2191" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E2191" t="inlineStr"/>
-      <c r="F2191" t="inlineStr"/>
-      <c r="G2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2192" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2192" t="inlineStr"/>
-      <c r="D2192" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E2192" t="inlineStr"/>
-      <c r="F2192" t="inlineStr"/>
-      <c r="G2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2193" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C2193" t="inlineStr"/>
-      <c r="D2193" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E2193" t="inlineStr"/>
-      <c r="F2193" t="inlineStr"/>
-      <c r="G2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2194" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C2194" t="inlineStr"/>
-      <c r="D2194" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E2194" t="inlineStr"/>
-      <c r="F2194" t="inlineStr"/>
-      <c r="G2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2195">
-      <c r="A2195" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2195" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C2195" t="inlineStr"/>
-      <c r="D2195" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E2195" t="inlineStr"/>
-      <c r="F2195" t="inlineStr"/>
-      <c r="G2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2196">
-      <c r="A2196" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2196" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2196" t="inlineStr"/>
-      <c r="D2196" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2196" t="inlineStr"/>
-      <c r="F2196" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2197">
-      <c r="A2197" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2197" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2197" t="inlineStr"/>
-      <c r="D2197" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2197" t="inlineStr"/>
-      <c r="F2197" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2198">
-      <c r="A2198" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2198" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2198" t="inlineStr"/>
-      <c r="D2198" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2198" t="inlineStr"/>
-      <c r="F2198" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2199">
-      <c r="A2199" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2199" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2199" t="inlineStr"/>
-      <c r="D2199" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E2199" t="inlineStr"/>
-      <c r="F2199" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G2199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2200">
-      <c r="A2200" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2200" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2200" t="inlineStr"/>
-      <c r="D2200" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2200" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2200" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2201">
-      <c r="A2201" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2201" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2201" t="inlineStr"/>
-      <c r="D2201" t="inlineStr">
-        <is>
-          <t>53Bcf</t>
-        </is>
-      </c>
-      <c r="E2201" t="inlineStr"/>
-      <c r="F2201" t="inlineStr"/>
-      <c r="G2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2202">
-      <c r="A2202" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2202" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2202" t="inlineStr"/>
-      <c r="D2202" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E2202" t="inlineStr"/>
-      <c r="F2202" t="inlineStr"/>
-      <c r="G2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2203">
-      <c r="A2203" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2203" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2203" t="inlineStr"/>
-      <c r="D2203" t="inlineStr">
-        <is>
-          <t>4.275%</t>
-        </is>
-      </c>
-      <c r="E2203" t="inlineStr"/>
-      <c r="F2203" t="inlineStr"/>
-      <c r="G2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2204">
-      <c r="A2204" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2204" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2204" t="inlineStr"/>
-      <c r="D2204" t="inlineStr">
-        <is>
-          <t>5.86%</t>
-        </is>
-      </c>
-      <c r="E2204" t="inlineStr"/>
-      <c r="F2204" t="inlineStr"/>
-      <c r="G2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2205">
-      <c r="A2205" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2205" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2205" t="inlineStr"/>
-      <c r="D2205" t="inlineStr">
-        <is>
-          <t>6.72%</t>
-        </is>
-      </c>
-      <c r="E2205" t="inlineStr"/>
-      <c r="F2205" t="inlineStr"/>
-      <c r="G2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2206">
-      <c r="A2206" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2206" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2206" t="inlineStr"/>
-      <c r="D2206" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E2206" t="inlineStr"/>
-      <c r="F2206" t="inlineStr"/>
-      <c r="G2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2207">
-      <c r="A2207" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2207" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C2207" t="inlineStr"/>
-      <c r="D2207" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E2207" t="inlineStr"/>
-      <c r="F2207" t="inlineStr"/>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2208">
-      <c r="A2208" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2208" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2208" t="inlineStr"/>
-      <c r="D2208" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E2208" t="inlineStr"/>
-      <c r="F2208" t="inlineStr"/>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2209">
-      <c r="A2209" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2209" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C2209" t="inlineStr"/>
-      <c r="D2209" t="inlineStr"/>
-      <c r="E2209" t="inlineStr"/>
-      <c r="F2209" t="inlineStr"/>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2210">
-      <c r="A2210" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2210" t="inlineStr"/>
-      <c r="C2210" t="inlineStr"/>
-      <c r="D2210" t="inlineStr"/>
-      <c r="E2210" t="inlineStr"/>
-      <c r="F2210" t="inlineStr"/>
-      <c r="G2210" t="inlineStr"/>
-    </row>
-    <row r="2211">
-      <c r="A2211" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2211" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2211" t="inlineStr"/>
-      <c r="D2211" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2211" t="inlineStr"/>
-      <c r="F2211" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2212">
-      <c r="A2212" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2212" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C2212" t="inlineStr"/>
-      <c r="D2212" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2212" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F2212" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2213">
-      <c r="A2213" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2213" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2213" t="inlineStr"/>
-      <c r="D2213" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E2213" t="inlineStr"/>
-      <c r="F2213" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2214">
-      <c r="A2214" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2214" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2214" t="inlineStr"/>
-      <c r="D2214" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E2214" t="inlineStr"/>
-      <c r="F2214" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2215">
-      <c r="A2215" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2215" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2215" t="inlineStr"/>
-      <c r="D2215" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2215" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F2215" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2216">
-      <c r="A2216" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2216" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2216" t="inlineStr"/>
-      <c r="D2216" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2216" t="inlineStr"/>
-      <c r="F2216" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2217">
-      <c r="A2217" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2217" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2217" t="inlineStr"/>
-      <c r="D2217" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2217" t="inlineStr"/>
-      <c r="F2217" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2218">
-      <c r="A2218" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2218" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2218" t="inlineStr"/>
-      <c r="D2218" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2218" t="inlineStr"/>
-      <c r="F2218" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2219">
-      <c r="A2219" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2219" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2219" t="inlineStr"/>
-      <c r="D2219" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E2219" t="inlineStr"/>
-      <c r="F2219" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2220">
-      <c r="A2220" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2220" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2220" t="inlineStr"/>
-      <c r="D2220" t="inlineStr"/>
-      <c r="E2220" t="inlineStr"/>
-      <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2221">
-      <c r="A2221" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2221" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2221" t="inlineStr"/>
-      <c r="D2221" t="inlineStr"/>
-      <c r="E2221" t="inlineStr"/>
-      <c r="F2221" t="inlineStr"/>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2222">
-      <c r="A2222" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2222" t="inlineStr"/>
-      <c r="C2222" t="inlineStr"/>
-      <c r="D2222" t="inlineStr"/>
-      <c r="E2222" t="inlineStr"/>
-      <c r="F2222" t="inlineStr"/>
-      <c r="G2222" t="inlineStr"/>
+      <c r="F2185" t="inlineStr"/>
+      <c r="G2185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2222"/>
+  <dimension ref="A1:G2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55332,10 +55332,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2116">
@@ -55369,10 +55367,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -55402,10 +55398,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -55423,10 +55417,8 @@
       <c r="D2118" t="inlineStr"/>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr"/>
-      <c r="G2118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2118" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2119">
@@ -55456,10 +55448,8 @@
         </is>
       </c>
       <c r="F2119" t="inlineStr"/>
-      <c r="G2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -55485,10 +55475,8 @@
       </c>
       <c r="E2120" t="inlineStr"/>
       <c r="F2120" t="inlineStr"/>
-      <c r="G2120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2121">
@@ -55514,10 +55502,8 @@
       </c>
       <c r="E2121" t="inlineStr"/>
       <c r="F2121" t="inlineStr"/>
-      <c r="G2121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2122">
@@ -55543,10 +55529,8 @@
       </c>
       <c r="E2122" t="inlineStr"/>
       <c r="F2122" t="inlineStr"/>
-      <c r="G2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
@@ -55572,10 +55556,8 @@
       </c>
       <c r="E2123" t="inlineStr"/>
       <c r="F2123" t="inlineStr"/>
-      <c r="G2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -55601,10 +55583,8 @@
       </c>
       <c r="E2124" t="inlineStr"/>
       <c r="F2124" t="inlineStr"/>
-      <c r="G2124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2125">
@@ -55622,10 +55602,8 @@
       <c r="D2125" t="inlineStr"/>
       <c r="E2125" t="inlineStr"/>
       <c r="F2125" t="inlineStr"/>
-      <c r="G2125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2126">
@@ -55643,10 +55621,8 @@
       <c r="D2126" t="inlineStr"/>
       <c r="E2126" t="inlineStr"/>
       <c r="F2126" t="inlineStr"/>
-      <c r="G2126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2127">
@@ -55672,40 +55648,62 @@
       </c>
       <c r="E2127" t="inlineStr"/>
       <c r="F2127" t="inlineStr"/>
-      <c r="G2127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2128" t="inlineStr"/>
+          <t>08:15 AM</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>Manufacturing Production MoMJUN</t>
+        </is>
+      </c>
       <c r="C2128" t="inlineStr"/>
-      <c r="D2128" t="inlineStr"/>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E2128" t="inlineStr"/>
-      <c r="F2128" t="inlineStr"/>
-      <c r="G2128" t="inlineStr"/>
+      <c r="F2128" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production YoYJUN</t>
         </is>
       </c>
       <c r="C2129" t="inlineStr"/>
-      <c r="D2129" t="inlineStr"/>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E2129" t="inlineStr"/>
-      <c r="F2129" t="inlineStr"/>
+      <c r="F2129" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G2129" t="inlineStr">
         <is>
           <t>3</t>
@@ -55715,127 +55713,143 @@
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr"/>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>7.07M</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr"/>
       <c r="F2130" t="inlineStr"/>
       <c r="G2130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>EIA Gasoline Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr"/>
       <c r="D2131" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>-2.658M</t>
         </is>
       </c>
       <c r="E2131" t="inlineStr"/>
       <c r="F2131" t="inlineStr"/>
       <c r="G2131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>EIA Crude Oil Imports ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr"/>
       <c r="D2132" t="inlineStr">
         <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2132" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2132" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+          <t>-1.358M</t>
+        </is>
+      </c>
+      <c r="E2132" t="inlineStr"/>
+      <c r="F2132" t="inlineStr"/>
       <c r="G2132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2133" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2133" t="inlineStr"/>
-      <c r="D2133" t="inlineStr"/>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>0.464M</t>
+        </is>
+      </c>
       <c r="E2133" t="inlineStr"/>
       <c r="F2133" t="inlineStr"/>
-      <c r="G2133" t="inlineStr"/>
+      <c r="G2133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2134" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2134" t="inlineStr"/>
-      <c r="D2134" t="inlineStr"/>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>0.059M</t>
+        </is>
+      </c>
       <c r="E2134" t="inlineStr"/>
       <c r="F2134" t="inlineStr"/>
-      <c r="G2134" t="inlineStr"/>
+      <c r="G2134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>4.255%</t>
+          <t>-0.825M</t>
         </is>
       </c>
       <c r="E2135" t="inlineStr"/>
@@ -55849,18 +55863,18 @@
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr"/>
       <c r="D2136" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>0.278M</t>
         </is>
       </c>
       <c r="E2136" t="inlineStr"/>
@@ -55874,168 +55888,132 @@
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2137" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C2137" t="inlineStr"/>
-      <c r="D2137" t="inlineStr"/>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>0.603M</t>
+        </is>
+      </c>
       <c r="E2137" t="inlineStr"/>
       <c r="F2137" t="inlineStr"/>
-      <c r="G2137" t="inlineStr"/>
+      <c r="G2137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr"/>
       <c r="D2138" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2138" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2138" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-0.099M</t>
+        </is>
+      </c>
+      <c r="E2138" t="inlineStr"/>
+      <c r="F2138" t="inlineStr"/>
       <c r="G2138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
       <c r="D2139" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E2139" t="inlineStr"/>
-      <c r="F2139" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F2139" t="inlineStr"/>
       <c r="G2139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
-      <c r="D2140" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2140" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2140" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D2140" t="inlineStr"/>
+      <c r="E2140" t="inlineStr"/>
+      <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
-      <c r="D2141" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D2141" t="inlineStr"/>
       <c r="E2141" t="inlineStr"/>
-      <c r="F2141" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2142" t="inlineStr">
-        <is>
-          <t>CPIJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr"/>
       <c r="C2142" t="inlineStr"/>
-      <c r="D2142" t="inlineStr">
-        <is>
-          <t>321.465</t>
-        </is>
-      </c>
+      <c r="D2142" t="inlineStr"/>
       <c r="E2142" t="inlineStr"/>
-      <c r="F2142" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="G2142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2142" t="inlineStr"/>
+      <c r="G2142" t="inlineStr"/>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
@@ -56045,24 +56023,28 @@
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2143" t="inlineStr"/>
       <c r="D2143" t="inlineStr">
         <is>
-          <t>320.580</t>
-        </is>
-      </c>
-      <c r="E2143" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E2143" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2143" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56074,19 +56056,19 @@
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr"/>
       <c r="D2144" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2144" t="inlineStr">
@@ -56098,68 +56080,84 @@
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Import Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr"/>
       <c r="D2145" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2145" t="inlineStr"/>
-      <c r="F2145" t="inlineStr"/>
+      <c r="F2145" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr"/>
-      <c r="D2146" t="inlineStr"/>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E2146" t="inlineStr"/>
-      <c r="F2146" t="inlineStr"/>
+      <c r="F2146" t="inlineStr">
+        <is>
+          <t>230.0K</t>
+        </is>
+      </c>
       <c r="G2146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E2147" t="inlineStr"/>
-      <c r="F2147" t="inlineStr"/>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G2147" t="inlineStr">
         <is>
           <t>2</t>
@@ -56169,35 +56167,59 @@
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2148" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJUN</t>
+        </is>
+      </c>
       <c r="C2148" t="inlineStr"/>
-      <c r="D2148" t="inlineStr"/>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E2148" t="inlineStr"/>
-      <c r="F2148" t="inlineStr"/>
-      <c r="G2148" t="inlineStr"/>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G2148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2149">
       <c r="A2149" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr"/>
       <c r="D2149" t="inlineStr">
         <is>
-          <t>6.77%</t>
-        </is>
-      </c>
-      <c r="E2149" t="inlineStr"/>
-      <c r="F2149" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E2149" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2149" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2149" t="inlineStr">
         <is>
           <t>2</t>
@@ -56207,22 +56229,26 @@
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>1965K</t>
         </is>
       </c>
       <c r="E2150" t="inlineStr"/>
-      <c r="F2150" t="inlineStr"/>
+      <c r="F2150" t="inlineStr">
+        <is>
+          <t>1970.0K</t>
+        </is>
+      </c>
       <c r="G2150" t="inlineStr">
         <is>
           <t>3</t>
@@ -56232,22 +56258,26 @@
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr"/>
       <c r="D2151" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E2151" t="inlineStr"/>
-      <c r="F2151" t="inlineStr"/>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="G2151" t="inlineStr">
         <is>
           <t>3</t>
@@ -56257,22 +56287,26 @@
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
       <c r="D2152" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2152" t="inlineStr"/>
-      <c r="F2152" t="inlineStr"/>
+      <c r="F2152" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2152" t="inlineStr">
         <is>
           <t>3</t>
@@ -56282,22 +56316,26 @@
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
       <c r="D2153" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>235.5K</t>
         </is>
       </c>
       <c r="E2153" t="inlineStr"/>
-      <c r="F2153" t="inlineStr"/>
+      <c r="F2153" t="inlineStr">
+        <is>
+          <t>237.0K</t>
+        </is>
+      </c>
       <c r="G2153" t="inlineStr">
         <is>
           <t>3</t>
@@ -56312,24 +56350,20 @@
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
       <c r="D2154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E2154" t="inlineStr"/>
-      <c r="F2154" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2154" t="inlineStr"/>
       <c r="G2154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56341,28 +56375,20 @@
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C2155" t="inlineStr"/>
       <c r="D2155" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2155" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2155" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E2155" t="inlineStr"/>
+      <c r="F2155" t="inlineStr"/>
       <c r="G2155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56374,21 +56400,17 @@
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr"/>
       <c r="D2156" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E2156" t="inlineStr"/>
-      <c r="F2156" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F2156" t="inlineStr"/>
       <c r="G2156" t="inlineStr">
         <is>
           <t>3</t>
@@ -56403,21 +56425,17 @@
       </c>
       <c r="B2157" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C2157" t="inlineStr"/>
       <c r="D2157" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E2157" t="inlineStr"/>
-      <c r="F2157" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
+      <c r="F2157" t="inlineStr"/>
       <c r="G2157" t="inlineStr">
         <is>
           <t>3</t>
@@ -56432,21 +56450,17 @@
       </c>
       <c r="B2158" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C2158" t="inlineStr"/>
       <c r="D2158" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E2158" t="inlineStr"/>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2158" t="inlineStr"/>
       <c r="G2158" t="inlineStr">
         <is>
           <t>3</t>
@@ -56461,19 +56475,19 @@
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2159" t="inlineStr"/>
       <c r="D2159" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2159" t="inlineStr"/>
       <c r="F2159" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2159" t="inlineStr">
@@ -56490,19 +56504,19 @@
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C2160" t="inlineStr"/>
       <c r="D2160" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E2160" t="inlineStr"/>
       <c r="F2160" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G2160" t="inlineStr">
@@ -56514,18 +56528,26 @@
     <row r="2161">
       <c r="A2161" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2161" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2161" t="inlineStr"/>
-      <c r="D2161" t="inlineStr"/>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E2161" t="inlineStr"/>
-      <c r="F2161" t="inlineStr"/>
+      <c r="F2161" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2161" t="inlineStr">
         <is>
           <t>2</t>
@@ -56535,28 +56557,24 @@
     <row r="2162">
       <c r="A2162" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr"/>
       <c r="D2162" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E2162" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E2162" t="inlineStr"/>
       <c r="F2162" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G2162" t="inlineStr">
@@ -56568,28 +56586,28 @@
     <row r="2163">
       <c r="A2163" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr"/>
       <c r="D2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2163" t="inlineStr">
@@ -56601,26 +56619,22 @@
     <row r="2164">
       <c r="A2164" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2164" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2164" t="inlineStr"/>
       <c r="D2164" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>53Bcf</t>
         </is>
       </c>
       <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F2164" t="inlineStr"/>
       <c r="G2164" t="inlineStr">
         <is>
           <t>3</t>
@@ -56630,26 +56644,22 @@
     <row r="2165">
       <c r="A2165" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2165" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2165" t="inlineStr"/>
       <c r="D2165" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E2165" t="inlineStr"/>
-      <c r="F2165" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2165" t="inlineStr"/>
       <c r="G2165" t="inlineStr">
         <is>
           <t>3</t>
@@ -56659,26 +56669,22 @@
     <row r="2166">
       <c r="A2166" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr"/>
       <c r="D2166" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.275%</t>
         </is>
       </c>
       <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F2166" t="inlineStr"/>
       <c r="G2166" t="inlineStr">
         <is>
           <t>3</t>
@@ -56688,93 +56694,93 @@
     <row r="2167">
       <c r="A2167" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr"/>
       <c r="D2167" t="inlineStr">
         <is>
-          <t>7.07M</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="E2167" t="inlineStr"/>
       <c r="F2167" t="inlineStr"/>
       <c r="G2167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2168" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2168" t="inlineStr"/>
       <c r="D2168" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>6.72%</t>
         </is>
       </c>
       <c r="E2168" t="inlineStr"/>
       <c r="F2168" t="inlineStr"/>
       <c r="G2168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2169" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C2169" t="inlineStr"/>
       <c r="D2169" t="inlineStr">
         <is>
-          <t>-1.358M</t>
+          <t>$-7.8B</t>
         </is>
       </c>
       <c r="E2169" t="inlineStr"/>
       <c r="F2169" t="inlineStr"/>
       <c r="G2169" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2170">
       <c r="A2170" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2170" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2170" t="inlineStr"/>
       <c r="D2170" t="inlineStr">
         <is>
-          <t>0.464M</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2170" t="inlineStr"/>
@@ -56788,18 +56794,18 @@
     <row r="2171">
       <c r="A2171" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2171" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2171" t="inlineStr"/>
       <c r="D2171" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2171" t="inlineStr"/>
@@ -56813,18 +56819,18 @@
     <row r="2172">
       <c r="A2172" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2172" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2172" t="inlineStr"/>
       <c r="D2172" t="inlineStr">
         <is>
-          <t>-0.825M</t>
+          <t>$6.66T</t>
         </is>
       </c>
       <c r="E2172" t="inlineStr"/>
@@ -56838,1320 +56844,339 @@
     <row r="2173">
       <c r="A2173" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2173" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr"/>
       <c r="C2173" t="inlineStr"/>
-      <c r="D2173" t="inlineStr">
-        <is>
-          <t>0.278M</t>
-        </is>
-      </c>
+      <c r="D2173" t="inlineStr"/>
       <c r="E2173" t="inlineStr"/>
       <c r="F2173" t="inlineStr"/>
-      <c r="G2173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2173" t="inlineStr"/>
     </row>
     <row r="2174">
       <c r="A2174" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2174" t="inlineStr"/>
       <c r="D2174" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2174" t="inlineStr"/>
-      <c r="F2174" t="inlineStr"/>
+      <c r="F2174" t="inlineStr">
+        <is>
+          <t>1.37M</t>
+        </is>
+      </c>
       <c r="G2174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2175" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2175" t="inlineStr"/>
       <c r="D2175" t="inlineStr">
         <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
-      <c r="E2175" t="inlineStr"/>
-      <c r="F2175" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E2175" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
+      <c r="F2175" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G2175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2176" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2176" t="inlineStr"/>
       <c r="D2176" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2176" t="inlineStr"/>
-      <c r="F2176" t="inlineStr"/>
+      <c r="F2176" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G2176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2177" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr"/>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>-9.8%</t>
+        </is>
+      </c>
       <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr"/>
+      <c r="F2177" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G2177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2178" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr"/>
-      <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E2178" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="F2178" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G2178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B2179" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr"/>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr"/>
-      <c r="G2179" t="inlineStr"/>
+      <c r="F2179" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="G2179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2180">
       <c r="A2180" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJUN</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2180" t="inlineStr"/>
       <c r="D2180" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2180" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>58.1</t>
+        </is>
+      </c>
+      <c r="E2180" t="inlineStr"/>
       <c r="F2180" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G2180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2181">
       <c r="A2181" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2181" t="inlineStr">
         <is>
-          <t>Export Prices MoMJUN</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2181" t="inlineStr"/>
       <c r="D2181" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E2181" t="inlineStr"/>
       <c r="F2181" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="G2181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2182">
       <c r="A2182" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
-          <t>Import Prices MoMJUN</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2182" t="inlineStr"/>
       <c r="D2182" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2182" t="inlineStr"/>
       <c r="F2182" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G2182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2183" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
+      <c r="D2183" t="inlineStr"/>
       <c r="E2183" t="inlineStr"/>
-      <c r="F2183" t="inlineStr">
-        <is>
-          <t>230.0K</t>
-        </is>
-      </c>
+      <c r="F2183" t="inlineStr"/>
       <c r="G2183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2184" t="inlineStr"/>
-      <c r="D2184" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
+      <c r="D2184" t="inlineStr"/>
       <c r="E2184" t="inlineStr"/>
-      <c r="F2184" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="F2184" t="inlineStr"/>
       <c r="G2184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2185" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr"/>
       <c r="C2185" t="inlineStr"/>
-      <c r="D2185" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D2185" t="inlineStr"/>
       <c r="E2185" t="inlineStr"/>
-      <c r="F2185" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2186" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2186" t="inlineStr"/>
-      <c r="D2186" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2186" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2186" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2187" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>1965K</t>
-        </is>
-      </c>
-      <c r="E2187" t="inlineStr"/>
-      <c r="F2187" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2188" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2189" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2189" t="inlineStr"/>
-      <c r="D2189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2190" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C2190" t="inlineStr"/>
-      <c r="D2190" t="inlineStr">
-        <is>
-          <t>235.5K</t>
-        </is>
-      </c>
-      <c r="E2190" t="inlineStr"/>
-      <c r="F2190" t="inlineStr">
-        <is>
-          <t>237.0K</t>
-        </is>
-      </c>
-      <c r="G2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2191" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C2191" t="inlineStr"/>
-      <c r="D2191" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E2191" t="inlineStr"/>
-      <c r="F2191" t="inlineStr"/>
-      <c r="G2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2192" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2192" t="inlineStr"/>
-      <c r="D2192" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E2192" t="inlineStr"/>
-      <c r="F2192" t="inlineStr"/>
-      <c r="G2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2193" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C2193" t="inlineStr"/>
-      <c r="D2193" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E2193" t="inlineStr"/>
-      <c r="F2193" t="inlineStr"/>
-      <c r="G2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2194" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C2194" t="inlineStr"/>
-      <c r="D2194" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E2194" t="inlineStr"/>
-      <c r="F2194" t="inlineStr"/>
-      <c r="G2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2195">
-      <c r="A2195" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2195" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C2195" t="inlineStr"/>
-      <c r="D2195" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E2195" t="inlineStr"/>
-      <c r="F2195" t="inlineStr"/>
-      <c r="G2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2196">
-      <c r="A2196" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2196" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2196" t="inlineStr"/>
-      <c r="D2196" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2196" t="inlineStr"/>
-      <c r="F2196" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2197">
-      <c r="A2197" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2197" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2197" t="inlineStr"/>
-      <c r="D2197" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2197" t="inlineStr"/>
-      <c r="F2197" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2198">
-      <c r="A2198" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2198" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2198" t="inlineStr"/>
-      <c r="D2198" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2198" t="inlineStr"/>
-      <c r="F2198" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2199">
-      <c r="A2199" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2199" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2199" t="inlineStr"/>
-      <c r="D2199" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E2199" t="inlineStr"/>
-      <c r="F2199" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G2199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2200">
-      <c r="A2200" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2200" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2200" t="inlineStr"/>
-      <c r="D2200" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2200" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2200" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2201">
-      <c r="A2201" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2201" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2201" t="inlineStr"/>
-      <c r="D2201" t="inlineStr">
-        <is>
-          <t>53Bcf</t>
-        </is>
-      </c>
-      <c r="E2201" t="inlineStr"/>
-      <c r="F2201" t="inlineStr"/>
-      <c r="G2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2202">
-      <c r="A2202" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2202" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2202" t="inlineStr"/>
-      <c r="D2202" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E2202" t="inlineStr"/>
-      <c r="F2202" t="inlineStr"/>
-      <c r="G2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2203">
-      <c r="A2203" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2203" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2203" t="inlineStr"/>
-      <c r="D2203" t="inlineStr">
-        <is>
-          <t>4.275%</t>
-        </is>
-      </c>
-      <c r="E2203" t="inlineStr"/>
-      <c r="F2203" t="inlineStr"/>
-      <c r="G2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2204">
-      <c r="A2204" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2204" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2204" t="inlineStr"/>
-      <c r="D2204" t="inlineStr">
-        <is>
-          <t>5.86%</t>
-        </is>
-      </c>
-      <c r="E2204" t="inlineStr"/>
-      <c r="F2204" t="inlineStr"/>
-      <c r="G2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2205">
-      <c r="A2205" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2205" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2205" t="inlineStr"/>
-      <c r="D2205" t="inlineStr">
-        <is>
-          <t>6.72%</t>
-        </is>
-      </c>
-      <c r="E2205" t="inlineStr"/>
-      <c r="F2205" t="inlineStr"/>
-      <c r="G2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2206">
-      <c r="A2206" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2206" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2206" t="inlineStr"/>
-      <c r="D2206" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E2206" t="inlineStr"/>
-      <c r="F2206" t="inlineStr"/>
-      <c r="G2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2207">
-      <c r="A2207" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2207" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C2207" t="inlineStr"/>
-      <c r="D2207" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E2207" t="inlineStr"/>
-      <c r="F2207" t="inlineStr"/>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2208">
-      <c r="A2208" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2208" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2208" t="inlineStr"/>
-      <c r="D2208" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E2208" t="inlineStr"/>
-      <c r="F2208" t="inlineStr"/>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2209">
-      <c r="A2209" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2209" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C2209" t="inlineStr"/>
-      <c r="D2209" t="inlineStr">
-        <is>
-          <t>$6.66T</t>
-        </is>
-      </c>
-      <c r="E2209" t="inlineStr"/>
-      <c r="F2209" t="inlineStr"/>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2210">
-      <c r="A2210" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2210" t="inlineStr"/>
-      <c r="C2210" t="inlineStr"/>
-      <c r="D2210" t="inlineStr"/>
-      <c r="E2210" t="inlineStr"/>
-      <c r="F2210" t="inlineStr"/>
-      <c r="G2210" t="inlineStr"/>
-    </row>
-    <row r="2211">
-      <c r="A2211" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2211" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2211" t="inlineStr"/>
-      <c r="D2211" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2211" t="inlineStr"/>
-      <c r="F2211" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2212">
-      <c r="A2212" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2212" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C2212" t="inlineStr"/>
-      <c r="D2212" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2212" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F2212" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2213">
-      <c r="A2213" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2213" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2213" t="inlineStr"/>
-      <c r="D2213" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E2213" t="inlineStr"/>
-      <c r="F2213" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2214">
-      <c r="A2214" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2214" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2214" t="inlineStr"/>
-      <c r="D2214" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E2214" t="inlineStr"/>
-      <c r="F2214" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2215">
-      <c r="A2215" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2215" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2215" t="inlineStr"/>
-      <c r="D2215" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2215" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F2215" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2216">
-      <c r="A2216" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2216" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2216" t="inlineStr"/>
-      <c r="D2216" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2216" t="inlineStr"/>
-      <c r="F2216" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2217">
-      <c r="A2217" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2217" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2217" t="inlineStr"/>
-      <c r="D2217" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2217" t="inlineStr"/>
-      <c r="F2217" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2218">
-      <c r="A2218" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2218" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2218" t="inlineStr"/>
-      <c r="D2218" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2218" t="inlineStr"/>
-      <c r="F2218" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2219">
-      <c r="A2219" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2219" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2219" t="inlineStr"/>
-      <c r="D2219" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E2219" t="inlineStr"/>
-      <c r="F2219" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2220">
-      <c r="A2220" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2220" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2220" t="inlineStr"/>
-      <c r="D2220" t="inlineStr"/>
-      <c r="E2220" t="inlineStr"/>
-      <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2221">
-      <c r="A2221" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2221" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2221" t="inlineStr"/>
-      <c r="D2221" t="inlineStr"/>
-      <c r="E2221" t="inlineStr"/>
-      <c r="F2221" t="inlineStr"/>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2222">
-      <c r="A2222" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2222" t="inlineStr"/>
-      <c r="C2222" t="inlineStr"/>
-      <c r="D2222" t="inlineStr"/>
-      <c r="E2222" t="inlineStr"/>
-      <c r="F2222" t="inlineStr"/>
-      <c r="G2222" t="inlineStr"/>
+      <c r="F2185" t="inlineStr"/>
+      <c r="G2185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
